--- a/blocks/1920/TestCase-Module -1920.xlsx
+++ b/blocks/1920/TestCase-Module -1920.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\template1900\blocks\1920\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -152,24 +152,24 @@
     <definedName name="HeaderText" localSheetId="2">#REF!</definedName>
     <definedName name="HeaderText">#REF!</definedName>
     <definedName name="hinh1">Image!$A$1</definedName>
-    <definedName name="hinh10">Image!$A$191</definedName>
-    <definedName name="hinh11">Image!$A$192</definedName>
-    <definedName name="hinh12">Image!$A$212</definedName>
-    <definedName name="hinh13">Image!$A$234</definedName>
-    <definedName name="hinh14">Image!$A$260</definedName>
-    <definedName name="hinh15">Image!$A$297</definedName>
-    <definedName name="hinh16">Image!$A$345</definedName>
-    <definedName name="hinh17">Image!$A$366</definedName>
-    <definedName name="hinh18">Image!$A$387</definedName>
-    <definedName name="hinh19">Image!$A$408</definedName>
-    <definedName name="hinh2">Image!$A$56</definedName>
-    <definedName name="hinh20">Image!$A$429</definedName>
-    <definedName name="hinh3">Image!$A$57</definedName>
-    <definedName name="hinh4">Image!$A$58</definedName>
-    <definedName name="hinh5">Image!$A$59</definedName>
-    <definedName name="hinh6">Image!$A$60</definedName>
-    <definedName name="hinh7">Image!$A$96</definedName>
-    <definedName name="hinh8">Image!$A$97</definedName>
+    <definedName name="hinh10">Image!$A$131</definedName>
+    <definedName name="hinh11">Image!$A$132</definedName>
+    <definedName name="hinh12">Image!$A$152</definedName>
+    <definedName name="hinh13">Image!$A$174</definedName>
+    <definedName name="hinh14">Image!$A$200</definedName>
+    <definedName name="hinh15">Image!$A$237</definedName>
+    <definedName name="hinh16">Image!$A$285</definedName>
+    <definedName name="hinh17">Image!$A$306</definedName>
+    <definedName name="hinh18">Image!$A$327</definedName>
+    <definedName name="hinh19">Image!$A$348</definedName>
+    <definedName name="hinh2">Image!$A$25</definedName>
+    <definedName name="hinh20">Image!$A$369</definedName>
+    <definedName name="hinh3">Image!$A$83</definedName>
+    <definedName name="hinh4">Image!$A$84</definedName>
+    <definedName name="hinh5">Image!$A$85</definedName>
+    <definedName name="hinh6">Image!$A$86</definedName>
+    <definedName name="hinh7">Image!$A$108</definedName>
+    <definedName name="hinh8">Image!$A$109</definedName>
     <definedName name="hinh9">Image!$A$130</definedName>
     <definedName name="ID" localSheetId="2">#REF!</definedName>
     <definedName name="ID">#REF!</definedName>
@@ -178,7 +178,7 @@
     <definedName name="MB_Menu1_1">Image!#REF!</definedName>
     <definedName name="Menu1">Image!$B$3</definedName>
     <definedName name="Menu2">Image!$B$13</definedName>
-    <definedName name="Menu2_2">Image!$B$25</definedName>
+    <definedName name="Menu2_2">Image!#REF!</definedName>
     <definedName name="Menu3">Image!#REF!</definedName>
     <definedName name="Menu4">Image!#REF!</definedName>
     <definedName name="MSDVSHO" localSheetId="2">#REF!</definedName>
@@ -187,7 +187,7 @@
     <definedName name="MSYHSHO">#REF!</definedName>
     <definedName name="PAGE" localSheetId="2">#REF!</definedName>
     <definedName name="PAGE">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Image!$A$1:$AL$449</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Image!$A$1:$AL$389</definedName>
     <definedName name="SH">[4]ｿﾌﾄﾊｳｽ!$A$2:$B$7</definedName>
     <definedName name="shop_1" localSheetId="2">#REF!</definedName>
     <definedName name="shop_1">#REF!</definedName>
@@ -1175,9 +1175,6 @@
     <t>Fix bug on mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Block </t>
-  </si>
-  <si>
     <r>
       <t>- Trường form, trong tr</t>
     </r>
@@ -1447,47 +1444,6 @@
       <t>u
 - Đảm bảo khả năng tương thích trình duyệt của form.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>- Database không có d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ữ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> li</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ệ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>u
-- Đảm bảo thanh thời gian hiển thị đúng</t>
-    </r>
-  </si>
-  <si>
-    <t>- Thanh thời gian hiển thị đúng vị trí, khoảng cách vừa phải</t>
   </si>
   <si>
     <t>- Diện tích của form tự điều chỉnh phù hợp với kích cỡ của nội dung các mục</t>
@@ -1547,6 +1503,50 @@
   </si>
   <si>
     <t>1920</t>
+  </si>
+  <si>
+    <t>- Hình ảnh hiển thị đúng vị trí, khoảng cách vừa phải</t>
+  </si>
+  <si>
+    <r>
+      <t>- Database không có d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u
+- Đảm bảo hình ảnh hiển thị đúng</t>
+    </r>
+  </si>
+  <si>
+    <t>Block 1920</t>
   </si>
 </sst>
 </file>
@@ -2209,6 +2209,51 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2218,39 +2263,6 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2260,17 +2272,17 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2281,6 +2293,27 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2299,12 +2332,126 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2346,153 +2493,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2683,13 +2683,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>430</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>446</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>1349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2727,13 +2727,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>349</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>30568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2771,13 +2771,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>11806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2815,13 +2815,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>171506</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2859,13 +2859,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>362</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>57009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2903,13 +2903,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>254210</xdr:colOff>
-      <xdr:row>342</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2947,13 +2947,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>141338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2991,13 +2991,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>255</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>51517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3035,13 +3035,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>86006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3079,13 +3079,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>155864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>308264</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>95992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3111,6 +3111,226 @@
         <a:xfrm>
           <a:off x="554182" y="43970864"/>
           <a:ext cx="10058400" cy="2416628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606136" y="415636"/>
+          <a:ext cx="10058400" cy="3530851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>153806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606136" y="5576455"/>
+          <a:ext cx="10058400" cy="3530851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>157595</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>206953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606136" y="9403773"/>
+          <a:ext cx="4400550" cy="8086725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>153805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606136" y="19275136"/>
+          <a:ext cx="10058400" cy="3530851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>153805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606136" y="24418636"/>
+          <a:ext cx="10058400" cy="3530851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3620,7 +3840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
@@ -5861,7 +6081,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="13.5"/>
@@ -5876,7 +6096,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="24">
       <c r="A1" s="24" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24" t="s">
@@ -6068,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AI2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -6082,286 +6302,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="161" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="155"/>
-      <c r="AG1" s="155"/>
-      <c r="AH1" s="155"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="162" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="163"/>
-      <c r="AL1" s="163"/>
-      <c r="AM1" s="163"/>
-      <c r="AN1" s="164" t="s">
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="163"/>
-      <c r="AQ1" s="163"/>
-      <c r="AR1" s="163"/>
-      <c r="AS1" s="164" t="s">
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="137"/>
+      <c r="AQ1" s="137"/>
+      <c r="AR1" s="137"/>
+      <c r="AS1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AT1" s="163"/>
-      <c r="AU1" s="163"/>
-      <c r="AV1" s="163"/>
-      <c r="AW1" s="132" t="s">
+      <c r="AT1" s="137"/>
+      <c r="AU1" s="137"/>
+      <c r="AV1" s="137"/>
+      <c r="AW1" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="133"/>
-      <c r="AZ1" s="134"/>
-      <c r="BA1" s="153" t="s">
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="153"/>
-      <c r="BC1" s="153"/>
-      <c r="BD1" s="153"/>
-      <c r="BE1" s="153"/>
-      <c r="BF1" s="153"/>
-      <c r="BG1" s="153"/>
-      <c r="BH1" s="153"/>
+      <c r="BB1" s="134"/>
+      <c r="BC1" s="134"/>
+      <c r="BD1" s="134"/>
+      <c r="BE1" s="134"/>
+      <c r="BF1" s="134"/>
+      <c r="BG1" s="134"/>
+      <c r="BH1" s="134"/>
       <c r="BI1" s="15"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="156"/>
-      <c r="AJ2" s="157" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="159" t="s">
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="157"/>
-      <c r="AP2" s="158"/>
-      <c r="AQ2" s="158"/>
-      <c r="AR2" s="158"/>
-      <c r="AS2" s="159">
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="129">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="158"/>
-      <c r="AU2" s="158"/>
-      <c r="AV2" s="158"/>
-      <c r="AW2" s="132" t="s">
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AX2" s="133"/>
-      <c r="AY2" s="133"/>
-      <c r="AZ2" s="134"/>
-      <c r="BA2" s="160" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB2" s="153"/>
-      <c r="BC2" s="153"/>
-      <c r="BD2" s="153"/>
-      <c r="BE2" s="153"/>
-      <c r="BF2" s="153"/>
-      <c r="BG2" s="153"/>
-      <c r="BH2" s="153"/>
+      <c r="AX2" s="131"/>
+      <c r="AY2" s="131"/>
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="134"/>
+      <c r="BH2" s="134"/>
       <c r="BI2" s="15"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="112"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="132" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="169"/>
+      <c r="AJ3" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="133"/>
-      <c r="AL3" s="133"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="145"/>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="145"/>
-      <c r="AS3" s="145"/>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="145"/>
-      <c r="AV3" s="146"/>
-      <c r="AW3" s="132"/>
-      <c r="AX3" s="133"/>
-      <c r="AY3" s="133"/>
-      <c r="AZ3" s="134"/>
-      <c r="BA3" s="144"/>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="145"/>
-      <c r="BD3" s="145"/>
-      <c r="BE3" s="145"/>
-      <c r="BF3" s="145"/>
-      <c r="BG3" s="145"/>
-      <c r="BH3" s="146"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="141"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="132"/>
+      <c r="BA3" s="139"/>
+      <c r="BB3" s="140"/>
+      <c r="BC3" s="140"/>
+      <c r="BD3" s="140"/>
+      <c r="BE3" s="140"/>
+      <c r="BF3" s="140"/>
+      <c r="BG3" s="140"/>
+      <c r="BH3" s="141"/>
       <c r="BI3" s="15"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="147" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
+      <c r="W4" s="171"/>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="171"/>
+      <c r="Z4" s="171"/>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="171"/>
+      <c r="AH4" s="171"/>
+      <c r="AI4" s="172"/>
+      <c r="AJ4" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="148"/>
-      <c r="AL4" s="148"/>
-      <c r="AM4" s="149"/>
-      <c r="AN4" s="150"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="147" t="s">
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="143"/>
+      <c r="AP4" s="143"/>
+      <c r="AQ4" s="143"/>
+      <c r="AR4" s="143"/>
+      <c r="AS4" s="143"/>
+      <c r="AT4" s="143"/>
+      <c r="AU4" s="143"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="148"/>
-      <c r="AY4" s="148"/>
-      <c r="AZ4" s="149"/>
-      <c r="BA4" s="150"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="151"/>
-      <c r="BF4" s="151"/>
-      <c r="BG4" s="151"/>
-      <c r="BH4" s="152"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="142"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="143"/>
+      <c r="BD4" s="143"/>
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="144"/>
     </row>
     <row r="5" spans="1:61" s="10" customFormat="1">
       <c r="A5" s="14"/>
@@ -6427,207 +6647,207 @@
       <c r="BI5" s="14"/>
     </row>
     <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="138" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="126" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="126" t="s">
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="155"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="127"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="127"/>
-      <c r="AM6" s="128"/>
-      <c r="AN6" s="126" t="s">
+      <c r="AD6" s="155"/>
+      <c r="AE6" s="155"/>
+      <c r="AF6" s="155"/>
+      <c r="AG6" s="155"/>
+      <c r="AH6" s="155"/>
+      <c r="AI6" s="155"/>
+      <c r="AJ6" s="155"/>
+      <c r="AK6" s="155"/>
+      <c r="AL6" s="155"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="127"/>
-      <c r="AQ6" s="128"/>
-      <c r="AR6" s="126" t="s">
+      <c r="AO6" s="155"/>
+      <c r="AP6" s="155"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="AS6" s="127"/>
-      <c r="AT6" s="128"/>
-      <c r="AU6" s="126" t="s">
+      <c r="AS6" s="155"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="AV6" s="127"/>
-      <c r="AW6" s="128"/>
-      <c r="AX6" s="126" t="s">
+      <c r="AV6" s="155"/>
+      <c r="AW6" s="156"/>
+      <c r="AX6" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="127"/>
-      <c r="AZ6" s="128"/>
-      <c r="BA6" s="143" t="s">
+      <c r="AY6" s="155"/>
+      <c r="AZ6" s="156"/>
+      <c r="BA6" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="BB6" s="143"/>
-      <c r="BC6" s="143"/>
-      <c r="BD6" s="143"/>
-      <c r="BE6" s="143"/>
-      <c r="BF6" s="143"/>
-      <c r="BG6" s="143"/>
-      <c r="BH6" s="143"/>
+      <c r="BB6" s="160"/>
+      <c r="BC6" s="160"/>
+      <c r="BD6" s="160"/>
+      <c r="BE6" s="160"/>
+      <c r="BF6" s="160"/>
+      <c r="BG6" s="160"/>
+      <c r="BH6" s="160"/>
       <c r="BI6" s="16"/>
     </row>
     <row r="7" spans="1:61" s="11" customFormat="1" ht="14.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="140" t="s">
+      <c r="A7" s="174"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141" t="s">
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="142" t="s">
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="130"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="130"/>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="130"/>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="131"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
-      <c r="AQ7" s="131"/>
-      <c r="AR7" s="129"/>
-      <c r="AS7" s="130"/>
-      <c r="AT7" s="131"/>
-      <c r="AU7" s="129"/>
-      <c r="AV7" s="130"/>
-      <c r="AW7" s="131"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="130"/>
-      <c r="AZ7" s="131"/>
-      <c r="BA7" s="143"/>
-      <c r="BB7" s="143"/>
-      <c r="BC7" s="143"/>
-      <c r="BD7" s="143"/>
-      <c r="BE7" s="143"/>
-      <c r="BF7" s="143"/>
-      <c r="BG7" s="143"/>
-      <c r="BH7" s="143"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="157"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="158"/>
+      <c r="W7" s="158"/>
+      <c r="X7" s="158"/>
+      <c r="Y7" s="158"/>
+      <c r="Z7" s="158"/>
+      <c r="AA7" s="158"/>
+      <c r="AB7" s="159"/>
+      <c r="AC7" s="157"/>
+      <c r="AD7" s="158"/>
+      <c r="AE7" s="158"/>
+      <c r="AF7" s="158"/>
+      <c r="AG7" s="158"/>
+      <c r="AH7" s="158"/>
+      <c r="AI7" s="158"/>
+      <c r="AJ7" s="158"/>
+      <c r="AK7" s="158"/>
+      <c r="AL7" s="158"/>
+      <c r="AM7" s="159"/>
+      <c r="AN7" s="157"/>
+      <c r="AO7" s="158"/>
+      <c r="AP7" s="158"/>
+      <c r="AQ7" s="159"/>
+      <c r="AR7" s="157"/>
+      <c r="AS7" s="158"/>
+      <c r="AT7" s="159"/>
+      <c r="AU7" s="157"/>
+      <c r="AV7" s="158"/>
+      <c r="AW7" s="159"/>
+      <c r="AX7" s="157"/>
+      <c r="AY7" s="158"/>
+      <c r="AZ7" s="159"/>
+      <c r="BA7" s="160"/>
+      <c r="BB7" s="160"/>
+      <c r="BC7" s="160"/>
+      <c r="BD7" s="160"/>
+      <c r="BE7" s="160"/>
+      <c r="BF7" s="160"/>
+      <c r="BG7" s="160"/>
+      <c r="BH7" s="160"/>
       <c r="BI7" s="17"/>
     </row>
     <row r="8" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A8" s="97">
+      <c r="A8" s="91">
         <v>1</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="83" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="91"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="82"/>
       <c r="AN8" s="74" t="s">
         <v>28</v>
       </c>
@@ -6649,58 +6869,58 @@
       </c>
       <c r="AY8" s="75"/>
       <c r="AZ8" s="76"/>
-      <c r="BA8" s="80" t="s">
+      <c r="BA8" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="81"/>
-      <c r="BF8" s="81"/>
-      <c r="BG8" s="81"/>
-      <c r="BH8" s="82"/>
+      <c r="BB8" s="96"/>
+      <c r="BC8" s="96"/>
+      <c r="BD8" s="96"/>
+      <c r="BE8" s="96"/>
+      <c r="BF8" s="96"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="97"/>
       <c r="BI8" s="18"/>
     </row>
     <row r="9" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="108"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="108"/>
-      <c r="AM9" s="109"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="119"/>
+      <c r="AL9" s="119"/>
+      <c r="AM9" s="120"/>
       <c r="AN9" s="77"/>
       <c r="AO9" s="78"/>
       <c r="AP9" s="78"/>
@@ -6714,66 +6934,66 @@
       <c r="AX9" s="77"/>
       <c r="AY9" s="78"/>
       <c r="AZ9" s="79"/>
-      <c r="BA9" s="104"/>
-      <c r="BB9" s="105"/>
-      <c r="BC9" s="105"/>
-      <c r="BD9" s="105"/>
-      <c r="BE9" s="105"/>
-      <c r="BF9" s="105"/>
-      <c r="BG9" s="105"/>
-      <c r="BH9" s="106"/>
+      <c r="BA9" s="115"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="116"/>
+      <c r="BE9" s="116"/>
+      <c r="BF9" s="116"/>
+      <c r="BG9" s="116"/>
+      <c r="BH9" s="117"/>
       <c r="BI9" s="18"/>
     </row>
     <row r="10" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A10" s="97">
+      <c r="A10" s="91">
         <v>2</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="83" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="94" t="s">
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="91"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="82"/>
       <c r="AN10" s="74" t="s">
         <v>28</v>
       </c>
@@ -6795,58 +7015,58 @@
       </c>
       <c r="AY10" s="75"/>
       <c r="AZ10" s="76"/>
-      <c r="BA10" s="135" t="s">
+      <c r="BA10" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="BB10" s="136"/>
-      <c r="BC10" s="136"/>
-      <c r="BD10" s="136"/>
-      <c r="BE10" s="136"/>
-      <c r="BF10" s="136"/>
-      <c r="BG10" s="136"/>
-      <c r="BH10" s="137"/>
+      <c r="BB10" s="145"/>
+      <c r="BC10" s="145"/>
+      <c r="BD10" s="145"/>
+      <c r="BE10" s="145"/>
+      <c r="BF10" s="145"/>
+      <c r="BG10" s="145"/>
+      <c r="BH10" s="146"/>
       <c r="BI10" s="18"/>
     </row>
     <row r="11" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="93"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="84"/>
       <c r="AN11" s="77"/>
       <c r="AO11" s="78"/>
       <c r="AP11" s="78"/>
@@ -6860,66 +7080,66 @@
       <c r="AX11" s="77"/>
       <c r="AY11" s="78"/>
       <c r="AZ11" s="79"/>
-      <c r="BA11" s="80"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="111"/>
+      <c r="BA11" s="95"/>
+      <c r="BB11" s="147"/>
+      <c r="BC11" s="147"/>
+      <c r="BD11" s="147"/>
+      <c r="BE11" s="147"/>
+      <c r="BF11" s="147"/>
+      <c r="BG11" s="147"/>
+      <c r="BH11" s="148"/>
       <c r="BI11" s="18"/>
     </row>
     <row r="12" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A12" s="97">
+      <c r="A12" s="91">
         <v>3</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="83" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="94" t="s">
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="91"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="82"/>
       <c r="AN12" s="74" t="s">
         <v>28</v>
       </c>
@@ -6941,58 +7161,58 @@
       </c>
       <c r="AY12" s="75"/>
       <c r="AZ12" s="76"/>
-      <c r="BA12" s="135" t="s">
+      <c r="BA12" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="BB12" s="136"/>
-      <c r="BC12" s="136"/>
-      <c r="BD12" s="136"/>
-      <c r="BE12" s="136"/>
-      <c r="BF12" s="136"/>
-      <c r="BG12" s="136"/>
-      <c r="BH12" s="137"/>
+      <c r="BB12" s="145"/>
+      <c r="BC12" s="145"/>
+      <c r="BD12" s="145"/>
+      <c r="BE12" s="145"/>
+      <c r="BF12" s="145"/>
+      <c r="BG12" s="145"/>
+      <c r="BH12" s="146"/>
       <c r="BI12" s="18"/>
     </row>
     <row r="13" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="108"/>
-      <c r="AE13" s="108"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="108"/>
-      <c r="AH13" s="108"/>
-      <c r="AI13" s="108"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="108"/>
-      <c r="AL13" s="108"/>
-      <c r="AM13" s="109"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="119"/>
+      <c r="AI13" s="119"/>
+      <c r="AJ13" s="119"/>
+      <c r="AK13" s="119"/>
+      <c r="AL13" s="119"/>
+      <c r="AM13" s="120"/>
       <c r="AN13" s="77"/>
       <c r="AO13" s="78"/>
       <c r="AP13" s="78"/>
@@ -7006,66 +7226,66 @@
       <c r="AX13" s="77"/>
       <c r="AY13" s="78"/>
       <c r="AZ13" s="79"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="110"/>
-      <c r="BC13" s="110"/>
-      <c r="BD13" s="110"/>
-      <c r="BE13" s="110"/>
-      <c r="BF13" s="110"/>
-      <c r="BG13" s="110"/>
-      <c r="BH13" s="111"/>
+      <c r="BA13" s="95"/>
+      <c r="BB13" s="147"/>
+      <c r="BC13" s="147"/>
+      <c r="BD13" s="147"/>
+      <c r="BE13" s="147"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="147"/>
+      <c r="BH13" s="148"/>
       <c r="BI13" s="18"/>
     </row>
     <row r="14" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A14" s="97">
+      <c r="A14" s="91">
         <v>4</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="83" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="89" t="s">
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="90"/>
-      <c r="AM14" s="91"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="82"/>
       <c r="AN14" s="74" t="s">
         <v>28</v>
       </c>
@@ -7087,58 +7307,58 @@
       </c>
       <c r="AY14" s="75"/>
       <c r="AZ14" s="76"/>
-      <c r="BA14" s="170" t="s">
+      <c r="BA14" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="BB14" s="81"/>
-      <c r="BC14" s="81"/>
-      <c r="BD14" s="81"/>
-      <c r="BE14" s="81"/>
-      <c r="BF14" s="81"/>
-      <c r="BG14" s="81"/>
-      <c r="BH14" s="82"/>
+      <c r="BB14" s="96"/>
+      <c r="BC14" s="96"/>
+      <c r="BD14" s="96"/>
+      <c r="BE14" s="96"/>
+      <c r="BF14" s="96"/>
+      <c r="BG14" s="96"/>
+      <c r="BH14" s="97"/>
       <c r="BI14" s="18"/>
     </row>
     <row r="15" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="93"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="83"/>
+      <c r="AM15" s="84"/>
       <c r="AN15" s="77"/>
       <c r="AO15" s="78"/>
       <c r="AP15" s="78"/>
@@ -7152,66 +7372,66 @@
       <c r="AX15" s="77"/>
       <c r="AY15" s="78"/>
       <c r="AZ15" s="79"/>
-      <c r="BA15" s="80"/>
-      <c r="BB15" s="81"/>
-      <c r="BC15" s="81"/>
-      <c r="BD15" s="81"/>
-      <c r="BE15" s="81"/>
-      <c r="BF15" s="81"/>
-      <c r="BG15" s="81"/>
-      <c r="BH15" s="82"/>
+      <c r="BA15" s="95"/>
+      <c r="BB15" s="96"/>
+      <c r="BC15" s="96"/>
+      <c r="BD15" s="96"/>
+      <c r="BE15" s="96"/>
+      <c r="BF15" s="96"/>
+      <c r="BG15" s="96"/>
+      <c r="BH15" s="97"/>
       <c r="BI15" s="57"/>
     </row>
     <row r="16" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A16" s="97">
+      <c r="A16" s="91">
         <v>5</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="83" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="94" t="s">
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="91"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="81"/>
+      <c r="AG16" s="81"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="81"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="82"/>
       <c r="AN16" s="74" t="s">
         <v>28</v>
       </c>
@@ -7233,58 +7453,58 @@
       </c>
       <c r="AY16" s="75"/>
       <c r="AZ16" s="76"/>
-      <c r="BA16" s="80" t="s">
+      <c r="BA16" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="BB16" s="81"/>
-      <c r="BC16" s="81"/>
-      <c r="BD16" s="81"/>
-      <c r="BE16" s="81"/>
-      <c r="BF16" s="81"/>
-      <c r="BG16" s="81"/>
-      <c r="BH16" s="82"/>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="96"/>
+      <c r="BD16" s="96"/>
+      <c r="BE16" s="96"/>
+      <c r="BF16" s="96"/>
+      <c r="BG16" s="96"/>
+      <c r="BH16" s="97"/>
       <c r="BI16" s="59"/>
     </row>
     <row r="17" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="108"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="108"/>
-      <c r="AM17" s="109"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="119"/>
+      <c r="AH17" s="119"/>
+      <c r="AI17" s="119"/>
+      <c r="AJ17" s="119"/>
+      <c r="AK17" s="119"/>
+      <c r="AL17" s="119"/>
+      <c r="AM17" s="120"/>
       <c r="AN17" s="77"/>
       <c r="AO17" s="78"/>
       <c r="AP17" s="78"/>
@@ -7298,66 +7518,66 @@
       <c r="AX17" s="77"/>
       <c r="AY17" s="78"/>
       <c r="AZ17" s="79"/>
-      <c r="BA17" s="135"/>
-      <c r="BB17" s="165"/>
-      <c r="BC17" s="165"/>
-      <c r="BD17" s="165"/>
-      <c r="BE17" s="165"/>
-      <c r="BF17" s="165"/>
-      <c r="BG17" s="165"/>
-      <c r="BH17" s="166"/>
+      <c r="BA17" s="109"/>
+      <c r="BB17" s="110"/>
+      <c r="BC17" s="110"/>
+      <c r="BD17" s="110"/>
+      <c r="BE17" s="110"/>
+      <c r="BF17" s="110"/>
+      <c r="BG17" s="110"/>
+      <c r="BH17" s="111"/>
       <c r="BI17" s="18"/>
     </row>
     <row r="18" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A18" s="97">
+      <c r="A18" s="91">
         <v>6</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="83" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="94" t="s">
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="90"/>
-      <c r="AM18" s="91"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81"/>
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="82"/>
       <c r="AN18" s="74" t="s">
         <v>28</v>
       </c>
@@ -7379,58 +7599,58 @@
       </c>
       <c r="AY18" s="75"/>
       <c r="AZ18" s="76"/>
-      <c r="BA18" s="80" t="s">
+      <c r="BA18" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="BB18" s="81"/>
-      <c r="BC18" s="81"/>
-      <c r="BD18" s="81"/>
-      <c r="BE18" s="81"/>
-      <c r="BF18" s="81"/>
-      <c r="BG18" s="81"/>
-      <c r="BH18" s="82"/>
+      <c r="BB18" s="96"/>
+      <c r="BC18" s="96"/>
+      <c r="BD18" s="96"/>
+      <c r="BE18" s="96"/>
+      <c r="BF18" s="96"/>
+      <c r="BG18" s="96"/>
+      <c r="BH18" s="97"/>
       <c r="BI18" s="59"/>
     </row>
     <row r="19" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="93"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
+      <c r="AI19" s="83"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="83"/>
+      <c r="AL19" s="83"/>
+      <c r="AM19" s="84"/>
       <c r="AN19" s="77"/>
       <c r="AO19" s="78"/>
       <c r="AP19" s="78"/>
@@ -7444,66 +7664,66 @@
       <c r="AX19" s="77"/>
       <c r="AY19" s="78"/>
       <c r="AZ19" s="79"/>
-      <c r="BA19" s="80"/>
-      <c r="BB19" s="81"/>
-      <c r="BC19" s="81"/>
-      <c r="BD19" s="81"/>
-      <c r="BE19" s="81"/>
-      <c r="BF19" s="81"/>
-      <c r="BG19" s="81"/>
-      <c r="BH19" s="82"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="96"/>
+      <c r="BC19" s="96"/>
+      <c r="BD19" s="96"/>
+      <c r="BE19" s="96"/>
+      <c r="BF19" s="96"/>
+      <c r="BG19" s="96"/>
+      <c r="BH19" s="97"/>
       <c r="BI19" s="57"/>
     </row>
     <row r="20" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A20" s="97">
+      <c r="A20" s="91">
         <v>7</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="83" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="96" t="s">
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="90"/>
-      <c r="AL20" s="90"/>
-      <c r="AM20" s="91"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="81"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="82"/>
       <c r="AN20" s="74" t="s">
         <v>28</v>
       </c>
@@ -7525,58 +7745,58 @@
       </c>
       <c r="AY20" s="75"/>
       <c r="AZ20" s="76"/>
-      <c r="BA20" s="170" t="s">
+      <c r="BA20" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="BB20" s="81"/>
-      <c r="BC20" s="81"/>
-      <c r="BD20" s="81"/>
-      <c r="BE20" s="81"/>
-      <c r="BF20" s="81"/>
-      <c r="BG20" s="81"/>
-      <c r="BH20" s="82"/>
+      <c r="BB20" s="96"/>
+      <c r="BC20" s="96"/>
+      <c r="BD20" s="96"/>
+      <c r="BE20" s="96"/>
+      <c r="BF20" s="96"/>
+      <c r="BG20" s="96"/>
+      <c r="BH20" s="97"/>
       <c r="BI20" s="59"/>
     </row>
     <row r="21" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="93"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="83"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="83"/>
+      <c r="X21" s="83"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="83"/>
+      <c r="AB21" s="83"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
+      <c r="AI21" s="83"/>
+      <c r="AJ21" s="83"/>
+      <c r="AK21" s="83"/>
+      <c r="AL21" s="83"/>
+      <c r="AM21" s="84"/>
       <c r="AN21" s="77"/>
       <c r="AO21" s="78"/>
       <c r="AP21" s="78"/>
@@ -7590,66 +7810,66 @@
       <c r="AX21" s="77"/>
       <c r="AY21" s="78"/>
       <c r="AZ21" s="79"/>
-      <c r="BA21" s="80"/>
-      <c r="BB21" s="81"/>
-      <c r="BC21" s="81"/>
-      <c r="BD21" s="81"/>
-      <c r="BE21" s="81"/>
-      <c r="BF21" s="81"/>
-      <c r="BG21" s="81"/>
-      <c r="BH21" s="82"/>
+      <c r="BA21" s="95"/>
+      <c r="BB21" s="96"/>
+      <c r="BC21" s="96"/>
+      <c r="BD21" s="96"/>
+      <c r="BE21" s="96"/>
+      <c r="BF21" s="96"/>
+      <c r="BG21" s="96"/>
+      <c r="BH21" s="97"/>
       <c r="BI21" s="57"/>
     </row>
     <row r="22" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A22" s="97">
+      <c r="A22" s="91">
         <v>8</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="83" t="s">
+      <c r="B22" s="92"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="90"/>
-      <c r="AL22" s="90"/>
-      <c r="AM22" s="91"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="82"/>
       <c r="AN22" s="74" t="s">
         <v>28</v>
       </c>
@@ -7671,58 +7891,58 @@
       </c>
       <c r="AY22" s="75"/>
       <c r="AZ22" s="76"/>
-      <c r="BA22" s="80" t="s">
+      <c r="BA22" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="BB22" s="81"/>
-      <c r="BC22" s="81"/>
-      <c r="BD22" s="81"/>
-      <c r="BE22" s="81"/>
-      <c r="BF22" s="81"/>
-      <c r="BG22" s="81"/>
-      <c r="BH22" s="82"/>
+      <c r="BB22" s="96"/>
+      <c r="BC22" s="96"/>
+      <c r="BD22" s="96"/>
+      <c r="BE22" s="96"/>
+      <c r="BF22" s="96"/>
+      <c r="BG22" s="96"/>
+      <c r="BH22" s="97"/>
       <c r="BI22" s="59"/>
     </row>
     <row r="23" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="93"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="83"/>
+      <c r="AB23" s="83"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
+      <c r="AI23" s="83"/>
+      <c r="AJ23" s="83"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="83"/>
+      <c r="AM23" s="84"/>
       <c r="AN23" s="77"/>
       <c r="AO23" s="78"/>
       <c r="AP23" s="78"/>
@@ -7736,66 +7956,66 @@
       <c r="AX23" s="77"/>
       <c r="AY23" s="78"/>
       <c r="AZ23" s="79"/>
-      <c r="BA23" s="80"/>
-      <c r="BB23" s="81"/>
-      <c r="BC23" s="81"/>
-      <c r="BD23" s="81"/>
-      <c r="BE23" s="81"/>
-      <c r="BF23" s="81"/>
-      <c r="BG23" s="81"/>
-      <c r="BH23" s="82"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="96"/>
+      <c r="BC23" s="96"/>
+      <c r="BD23" s="96"/>
+      <c r="BE23" s="96"/>
+      <c r="BF23" s="96"/>
+      <c r="BG23" s="96"/>
+      <c r="BH23" s="97"/>
       <c r="BI23" s="57"/>
     </row>
     <row r="24" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A24" s="97">
+      <c r="A24" s="91">
         <v>9</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="83" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="94" t="s">
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="90"/>
-      <c r="AM24" s="91"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="82"/>
       <c r="AN24" s="74" t="s">
         <v>28</v>
       </c>
@@ -7817,58 +8037,58 @@
       </c>
       <c r="AY24" s="75"/>
       <c r="AZ24" s="76"/>
-      <c r="BA24" s="80" t="s">
+      <c r="BA24" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="BB24" s="81"/>
-      <c r="BC24" s="81"/>
-      <c r="BD24" s="81"/>
-      <c r="BE24" s="81"/>
-      <c r="BF24" s="81"/>
-      <c r="BG24" s="81"/>
-      <c r="BH24" s="82"/>
+      <c r="BB24" s="96"/>
+      <c r="BC24" s="96"/>
+      <c r="BD24" s="96"/>
+      <c r="BE24" s="96"/>
+      <c r="BF24" s="96"/>
+      <c r="BG24" s="96"/>
+      <c r="BH24" s="97"/>
       <c r="BI24" s="59"/>
     </row>
     <row r="25" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="92"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="92"/>
-      <c r="AL25" s="92"/>
-      <c r="AM25" s="93"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="83"/>
+      <c r="AF25" s="83"/>
+      <c r="AG25" s="83"/>
+      <c r="AH25" s="83"/>
+      <c r="AI25" s="83"/>
+      <c r="AJ25" s="83"/>
+      <c r="AK25" s="83"/>
+      <c r="AL25" s="83"/>
+      <c r="AM25" s="84"/>
       <c r="AN25" s="77"/>
       <c r="AO25" s="78"/>
       <c r="AP25" s="78"/>
@@ -7882,68 +8102,68 @@
       <c r="AX25" s="77"/>
       <c r="AY25" s="78"/>
       <c r="AZ25" s="79"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="81"/>
-      <c r="BC25" s="81"/>
-      <c r="BD25" s="81"/>
-      <c r="BE25" s="81"/>
-      <c r="BF25" s="81"/>
-      <c r="BG25" s="81"/>
-      <c r="BH25" s="82"/>
+      <c r="BA25" s="95"/>
+      <c r="BB25" s="96"/>
+      <c r="BC25" s="96"/>
+      <c r="BD25" s="96"/>
+      <c r="BE25" s="96"/>
+      <c r="BF25" s="96"/>
+      <c r="BG25" s="96"/>
+      <c r="BH25" s="97"/>
       <c r="BI25" s="57"/>
     </row>
     <row r="26" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A26" s="97">
+      <c r="A26" s="91">
         <v>10</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="83" t="s">
+      <c r="B26" s="92"/>
+      <c r="C26" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="83" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="91"/>
-      <c r="T26" s="94" t="s">
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="96" t="s">
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="171"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="101"/>
       <c r="AN26" s="74" t="s">
         <v>28</v>
       </c>
@@ -7965,58 +8185,58 @@
       </c>
       <c r="AY26" s="75"/>
       <c r="AZ26" s="76"/>
-      <c r="BA26" s="170" t="s">
+      <c r="BA26" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="BB26" s="81"/>
-      <c r="BC26" s="81"/>
-      <c r="BD26" s="81"/>
-      <c r="BE26" s="81"/>
-      <c r="BF26" s="81"/>
-      <c r="BG26" s="81"/>
-      <c r="BH26" s="82"/>
+      <c r="BB26" s="96"/>
+      <c r="BC26" s="96"/>
+      <c r="BD26" s="96"/>
+      <c r="BE26" s="96"/>
+      <c r="BF26" s="96"/>
+      <c r="BG26" s="96"/>
+      <c r="BH26" s="97"/>
       <c r="BI26" s="59"/>
     </row>
     <row r="27" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="172"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="173"/>
-      <c r="AH27" s="173"/>
-      <c r="AI27" s="173"/>
-      <c r="AJ27" s="173"/>
-      <c r="AK27" s="173"/>
-      <c r="AL27" s="173"/>
-      <c r="AM27" s="174"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="103"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="104"/>
       <c r="AN27" s="77"/>
       <c r="AO27" s="78"/>
       <c r="AP27" s="78"/>
@@ -8030,66 +8250,66 @@
       <c r="AX27" s="77"/>
       <c r="AY27" s="78"/>
       <c r="AZ27" s="79"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="81"/>
-      <c r="BC27" s="81"/>
-      <c r="BD27" s="81"/>
-      <c r="BE27" s="81"/>
-      <c r="BF27" s="81"/>
-      <c r="BG27" s="81"/>
-      <c r="BH27" s="82"/>
+      <c r="BA27" s="95"/>
+      <c r="BB27" s="96"/>
+      <c r="BC27" s="96"/>
+      <c r="BD27" s="96"/>
+      <c r="BE27" s="96"/>
+      <c r="BF27" s="96"/>
+      <c r="BG27" s="96"/>
+      <c r="BH27" s="97"/>
       <c r="BI27" s="57"/>
     </row>
     <row r="28" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A28" s="97">
+      <c r="A28" s="91">
         <v>11</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="83" t="s">
+      <c r="B28" s="92"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="89" t="s">
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="94" t="s">
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="96" t="s">
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="90"/>
-      <c r="AJ28" s="90"/>
-      <c r="AK28" s="90"/>
-      <c r="AL28" s="90"/>
-      <c r="AM28" s="91"/>
+      <c r="AD28" s="81"/>
+      <c r="AE28" s="81"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="81"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="82"/>
       <c r="AN28" s="74" t="s">
         <v>28</v>
       </c>
@@ -8111,58 +8331,58 @@
       </c>
       <c r="AY28" s="75"/>
       <c r="AZ28" s="76"/>
-      <c r="BA28" s="80" t="s">
+      <c r="BA28" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="BB28" s="81"/>
-      <c r="BC28" s="81"/>
-      <c r="BD28" s="81"/>
-      <c r="BE28" s="81"/>
-      <c r="BF28" s="81"/>
-      <c r="BG28" s="81"/>
-      <c r="BH28" s="82"/>
+      <c r="BB28" s="96"/>
+      <c r="BC28" s="96"/>
+      <c r="BD28" s="96"/>
+      <c r="BE28" s="96"/>
+      <c r="BF28" s="96"/>
+      <c r="BG28" s="96"/>
+      <c r="BH28" s="97"/>
       <c r="BI28" s="59"/>
     </row>
     <row r="29" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="92"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="92"/>
-      <c r="AK29" s="92"/>
-      <c r="AL29" s="92"/>
-      <c r="AM29" s="93"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="84"/>
       <c r="AN29" s="77"/>
       <c r="AO29" s="78"/>
       <c r="AP29" s="78"/>
@@ -8176,66 +8396,66 @@
       <c r="AX29" s="77"/>
       <c r="AY29" s="78"/>
       <c r="AZ29" s="79"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="81"/>
-      <c r="BC29" s="81"/>
-      <c r="BD29" s="81"/>
-      <c r="BE29" s="81"/>
-      <c r="BF29" s="81"/>
-      <c r="BG29" s="81"/>
-      <c r="BH29" s="82"/>
+      <c r="BA29" s="95"/>
+      <c r="BB29" s="96"/>
+      <c r="BC29" s="96"/>
+      <c r="BD29" s="96"/>
+      <c r="BE29" s="96"/>
+      <c r="BF29" s="96"/>
+      <c r="BG29" s="96"/>
+      <c r="BH29" s="97"/>
       <c r="BI29" s="57"/>
     </row>
     <row r="30" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A30" s="97">
+      <c r="A30" s="91">
         <v>12</v>
       </c>
-      <c r="B30" s="98"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="83" t="s">
+      <c r="B30" s="92"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="89" t="s">
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="94" t="s">
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="90"/>
-      <c r="AM30" s="91"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="81"/>
+      <c r="AF30" s="81"/>
+      <c r="AG30" s="81"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="81"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="81"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="82"/>
       <c r="AN30" s="74" t="s">
         <v>28</v>
       </c>
@@ -8257,58 +8477,58 @@
       </c>
       <c r="AY30" s="75"/>
       <c r="AZ30" s="76"/>
-      <c r="BA30" s="80" t="s">
+      <c r="BA30" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="BB30" s="81"/>
-      <c r="BC30" s="81"/>
-      <c r="BD30" s="81"/>
-      <c r="BE30" s="81"/>
-      <c r="BF30" s="81"/>
-      <c r="BG30" s="81"/>
-      <c r="BH30" s="82"/>
+      <c r="BB30" s="96"/>
+      <c r="BC30" s="96"/>
+      <c r="BD30" s="96"/>
+      <c r="BE30" s="96"/>
+      <c r="BF30" s="96"/>
+      <c r="BG30" s="96"/>
+      <c r="BH30" s="97"/>
       <c r="BI30" s="59"/>
     </row>
     <row r="31" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A31" s="99"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="92"/>
-      <c r="AJ31" s="92"/>
-      <c r="AK31" s="92"/>
-      <c r="AL31" s="92"/>
-      <c r="AM31" s="93"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="83"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="83"/>
+      <c r="AB31" s="83"/>
+      <c r="AC31" s="99"/>
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="83"/>
+      <c r="AF31" s="83"/>
+      <c r="AG31" s="83"/>
+      <c r="AH31" s="83"/>
+      <c r="AI31" s="83"/>
+      <c r="AJ31" s="83"/>
+      <c r="AK31" s="83"/>
+      <c r="AL31" s="83"/>
+      <c r="AM31" s="84"/>
       <c r="AN31" s="77"/>
       <c r="AO31" s="78"/>
       <c r="AP31" s="78"/>
@@ -8322,66 +8542,66 @@
       <c r="AX31" s="77"/>
       <c r="AY31" s="78"/>
       <c r="AZ31" s="79"/>
-      <c r="BA31" s="80"/>
-      <c r="BB31" s="81"/>
-      <c r="BC31" s="81"/>
-      <c r="BD31" s="81"/>
-      <c r="BE31" s="81"/>
-      <c r="BF31" s="81"/>
-      <c r="BG31" s="81"/>
-      <c r="BH31" s="82"/>
+      <c r="BA31" s="95"/>
+      <c r="BB31" s="96"/>
+      <c r="BC31" s="96"/>
+      <c r="BD31" s="96"/>
+      <c r="BE31" s="96"/>
+      <c r="BF31" s="96"/>
+      <c r="BG31" s="96"/>
+      <c r="BH31" s="97"/>
       <c r="BI31" s="57"/>
     </row>
     <row r="32" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A32" s="97">
+      <c r="A32" s="91">
         <v>13</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="83" t="s">
+      <c r="B32" s="92"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="89" t="s">
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="94" t="s">
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="96" t="s">
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="90"/>
-      <c r="AK32" s="90"/>
-      <c r="AL32" s="90"/>
-      <c r="AM32" s="91"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="82"/>
       <c r="AN32" s="74" t="s">
         <v>28</v>
       </c>
@@ -8403,58 +8623,58 @@
       </c>
       <c r="AY32" s="75"/>
       <c r="AZ32" s="76"/>
-      <c r="BA32" s="80" t="s">
+      <c r="BA32" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="BB32" s="81"/>
-      <c r="BC32" s="81"/>
-      <c r="BD32" s="81"/>
-      <c r="BE32" s="81"/>
-      <c r="BF32" s="81"/>
-      <c r="BG32" s="81"/>
-      <c r="BH32" s="82"/>
+      <c r="BB32" s="96"/>
+      <c r="BC32" s="96"/>
+      <c r="BD32" s="96"/>
+      <c r="BE32" s="96"/>
+      <c r="BF32" s="96"/>
+      <c r="BG32" s="96"/>
+      <c r="BH32" s="97"/>
       <c r="BI32" s="59"/>
     </row>
     <row r="33" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="92"/>
-      <c r="AL33" s="92"/>
-      <c r="AM33" s="93"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="99"/>
+      <c r="U33" s="83"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="83"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="99"/>
+      <c r="AD33" s="83"/>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="83"/>
+      <c r="AG33" s="83"/>
+      <c r="AH33" s="83"/>
+      <c r="AI33" s="83"/>
+      <c r="AJ33" s="83"/>
+      <c r="AK33" s="83"/>
+      <c r="AL33" s="83"/>
+      <c r="AM33" s="84"/>
       <c r="AN33" s="77"/>
       <c r="AO33" s="78"/>
       <c r="AP33" s="78"/>
@@ -8468,66 +8688,66 @@
       <c r="AX33" s="77"/>
       <c r="AY33" s="78"/>
       <c r="AZ33" s="79"/>
-      <c r="BA33" s="80"/>
-      <c r="BB33" s="81"/>
-      <c r="BC33" s="81"/>
-      <c r="BD33" s="81"/>
-      <c r="BE33" s="81"/>
-      <c r="BF33" s="81"/>
-      <c r="BG33" s="81"/>
-      <c r="BH33" s="82"/>
+      <c r="BA33" s="95"/>
+      <c r="BB33" s="96"/>
+      <c r="BC33" s="96"/>
+      <c r="BD33" s="96"/>
+      <c r="BE33" s="96"/>
+      <c r="BF33" s="96"/>
+      <c r="BG33" s="96"/>
+      <c r="BH33" s="97"/>
       <c r="BI33" s="57"/>
     </row>
     <row r="34" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A34" s="97">
+      <c r="A34" s="91">
         <v>14</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="83" t="s">
+      <c r="B34" s="92"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="89" t="s">
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="94" t="s">
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="90"/>
-      <c r="AB34" s="90"/>
-      <c r="AC34" s="96" t="s">
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AD34" s="90"/>
-      <c r="AE34" s="90"/>
-      <c r="AF34" s="90"/>
-      <c r="AG34" s="90"/>
-      <c r="AH34" s="90"/>
-      <c r="AI34" s="90"/>
-      <c r="AJ34" s="90"/>
-      <c r="AK34" s="90"/>
-      <c r="AL34" s="90"/>
-      <c r="AM34" s="91"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="82"/>
       <c r="AN34" s="74" t="s">
         <v>28</v>
       </c>
@@ -8549,58 +8769,58 @@
       </c>
       <c r="AY34" s="75"/>
       <c r="AZ34" s="76"/>
-      <c r="BA34" s="80" t="s">
+      <c r="BA34" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="BB34" s="81"/>
-      <c r="BC34" s="81"/>
-      <c r="BD34" s="81"/>
-      <c r="BE34" s="81"/>
-      <c r="BF34" s="81"/>
-      <c r="BG34" s="81"/>
-      <c r="BH34" s="82"/>
+      <c r="BB34" s="96"/>
+      <c r="BC34" s="96"/>
+      <c r="BD34" s="96"/>
+      <c r="BE34" s="96"/>
+      <c r="BF34" s="96"/>
+      <c r="BG34" s="96"/>
+      <c r="BH34" s="97"/>
       <c r="BI34" s="59"/>
     </row>
     <row r="35" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="92"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="92"/>
-      <c r="AI35" s="92"/>
-      <c r="AJ35" s="92"/>
-      <c r="AK35" s="92"/>
-      <c r="AL35" s="92"/>
-      <c r="AM35" s="93"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="83"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="83"/>
+      <c r="X35" s="83"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="83"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="83"/>
+      <c r="AF35" s="83"/>
+      <c r="AG35" s="83"/>
+      <c r="AH35" s="83"/>
+      <c r="AI35" s="83"/>
+      <c r="AJ35" s="83"/>
+      <c r="AK35" s="83"/>
+      <c r="AL35" s="83"/>
+      <c r="AM35" s="84"/>
       <c r="AN35" s="77"/>
       <c r="AO35" s="78"/>
       <c r="AP35" s="78"/>
@@ -8614,68 +8834,68 @@
       <c r="AX35" s="77"/>
       <c r="AY35" s="78"/>
       <c r="AZ35" s="79"/>
-      <c r="BA35" s="80"/>
-      <c r="BB35" s="81"/>
-      <c r="BC35" s="81"/>
-      <c r="BD35" s="81"/>
-      <c r="BE35" s="81"/>
-      <c r="BF35" s="81"/>
-      <c r="BG35" s="81"/>
-      <c r="BH35" s="82"/>
+      <c r="BA35" s="95"/>
+      <c r="BB35" s="96"/>
+      <c r="BC35" s="96"/>
+      <c r="BD35" s="96"/>
+      <c r="BE35" s="96"/>
+      <c r="BF35" s="96"/>
+      <c r="BG35" s="96"/>
+      <c r="BH35" s="97"/>
       <c r="BI35" s="57"/>
     </row>
     <row r="36" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A36" s="97">
+      <c r="A36" s="91">
         <v>15</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="83" t="s">
+      <c r="B36" s="92"/>
+      <c r="C36" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="83" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="89" t="s">
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="94" t="s">
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="96" t="s">
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="90"/>
-      <c r="AF36" s="90"/>
-      <c r="AG36" s="90"/>
-      <c r="AH36" s="90"/>
-      <c r="AI36" s="90"/>
-      <c r="AJ36" s="90"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="90"/>
-      <c r="AM36" s="91"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+      <c r="AG36" s="81"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="81"/>
+      <c r="AK36" s="81"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="82"/>
       <c r="AN36" s="74" t="s">
         <v>28</v>
       </c>
@@ -8697,58 +8917,58 @@
       </c>
       <c r="AY36" s="75"/>
       <c r="AZ36" s="76"/>
-      <c r="BA36" s="80" t="s">
+      <c r="BA36" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="BB36" s="81"/>
-      <c r="BC36" s="81"/>
-      <c r="BD36" s="81"/>
-      <c r="BE36" s="81"/>
-      <c r="BF36" s="81"/>
-      <c r="BG36" s="81"/>
-      <c r="BH36" s="82"/>
+      <c r="BB36" s="96"/>
+      <c r="BC36" s="96"/>
+      <c r="BD36" s="96"/>
+      <c r="BE36" s="96"/>
+      <c r="BF36" s="96"/>
+      <c r="BG36" s="96"/>
+      <c r="BH36" s="97"/>
       <c r="BI36" s="59"/>
     </row>
     <row r="37" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="93"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="92"/>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="92"/>
-      <c r="AB37" s="92"/>
-      <c r="AC37" s="95"/>
-      <c r="AD37" s="92"/>
-      <c r="AE37" s="92"/>
-      <c r="AF37" s="92"/>
-      <c r="AG37" s="92"/>
-      <c r="AH37" s="92"/>
-      <c r="AI37" s="92"/>
-      <c r="AJ37" s="92"/>
-      <c r="AK37" s="92"/>
-      <c r="AL37" s="92"/>
-      <c r="AM37" s="93"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="83"/>
+      <c r="O37" s="83"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="84"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="83"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="83"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="83"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="83"/>
+      <c r="AB37" s="83"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="83"/>
+      <c r="AF37" s="83"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="83"/>
+      <c r="AI37" s="83"/>
+      <c r="AJ37" s="83"/>
+      <c r="AK37" s="83"/>
+      <c r="AL37" s="83"/>
+      <c r="AM37" s="84"/>
       <c r="AN37" s="77"/>
       <c r="AO37" s="78"/>
       <c r="AP37" s="78"/>
@@ -8762,66 +8982,66 @@
       <c r="AX37" s="77"/>
       <c r="AY37" s="78"/>
       <c r="AZ37" s="79"/>
-      <c r="BA37" s="80"/>
-      <c r="BB37" s="81"/>
-      <c r="BC37" s="81"/>
-      <c r="BD37" s="81"/>
-      <c r="BE37" s="81"/>
-      <c r="BF37" s="81"/>
-      <c r="BG37" s="81"/>
-      <c r="BH37" s="82"/>
+      <c r="BA37" s="95"/>
+      <c r="BB37" s="96"/>
+      <c r="BC37" s="96"/>
+      <c r="BD37" s="96"/>
+      <c r="BE37" s="96"/>
+      <c r="BF37" s="96"/>
+      <c r="BG37" s="96"/>
+      <c r="BH37" s="97"/>
       <c r="BI37" s="57"/>
     </row>
     <row r="38" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A38" s="97">
+      <c r="A38" s="91">
         <v>16</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="83" t="s">
+      <c r="B38" s="92"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="89" t="s">
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="94" t="s">
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="82"/>
+      <c r="T38" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="90"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="96" t="s">
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
+      <c r="W38" s="81"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="81"/>
+      <c r="AA38" s="81"/>
+      <c r="AB38" s="81"/>
+      <c r="AC38" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="90"/>
-      <c r="AG38" s="90"/>
-      <c r="AH38" s="90"/>
-      <c r="AI38" s="90"/>
-      <c r="AJ38" s="90"/>
-      <c r="AK38" s="90"/>
-      <c r="AL38" s="90"/>
-      <c r="AM38" s="91"/>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="81"/>
+      <c r="AF38" s="81"/>
+      <c r="AG38" s="81"/>
+      <c r="AH38" s="81"/>
+      <c r="AI38" s="81"/>
+      <c r="AJ38" s="81"/>
+      <c r="AK38" s="81"/>
+      <c r="AL38" s="81"/>
+      <c r="AM38" s="82"/>
       <c r="AN38" s="74" t="s">
         <v>28</v>
       </c>
@@ -8843,58 +9063,58 @@
       </c>
       <c r="AY38" s="75"/>
       <c r="AZ38" s="76"/>
-      <c r="BA38" s="80" t="s">
+      <c r="BA38" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="BB38" s="81"/>
-      <c r="BC38" s="81"/>
-      <c r="BD38" s="81"/>
-      <c r="BE38" s="81"/>
-      <c r="BF38" s="81"/>
-      <c r="BG38" s="81"/>
-      <c r="BH38" s="82"/>
+      <c r="BB38" s="96"/>
+      <c r="BC38" s="96"/>
+      <c r="BD38" s="96"/>
+      <c r="BE38" s="96"/>
+      <c r="BF38" s="96"/>
+      <c r="BG38" s="96"/>
+      <c r="BH38" s="97"/>
       <c r="BI38" s="59"/>
     </row>
     <row r="39" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="92"/>
-      <c r="AB39" s="92"/>
-      <c r="AC39" s="95"/>
-      <c r="AD39" s="92"/>
-      <c r="AE39" s="92"/>
-      <c r="AF39" s="92"/>
-      <c r="AG39" s="92"/>
-      <c r="AH39" s="92"/>
-      <c r="AI39" s="92"/>
-      <c r="AJ39" s="92"/>
-      <c r="AK39" s="92"/>
-      <c r="AL39" s="92"/>
-      <c r="AM39" s="93"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="83"/>
+      <c r="N39" s="83"/>
+      <c r="O39" s="83"/>
+      <c r="P39" s="83"/>
+      <c r="Q39" s="83"/>
+      <c r="R39" s="83"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="99"/>
+      <c r="U39" s="83"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="83"/>
+      <c r="AB39" s="83"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="83"/>
+      <c r="AE39" s="83"/>
+      <c r="AF39" s="83"/>
+      <c r="AG39" s="83"/>
+      <c r="AH39" s="83"/>
+      <c r="AI39" s="83"/>
+      <c r="AJ39" s="83"/>
+      <c r="AK39" s="83"/>
+      <c r="AL39" s="83"/>
+      <c r="AM39" s="84"/>
       <c r="AN39" s="77"/>
       <c r="AO39" s="78"/>
       <c r="AP39" s="78"/>
@@ -8908,66 +9128,66 @@
       <c r="AX39" s="77"/>
       <c r="AY39" s="78"/>
       <c r="AZ39" s="79"/>
-      <c r="BA39" s="80"/>
-      <c r="BB39" s="81"/>
-      <c r="BC39" s="81"/>
-      <c r="BD39" s="81"/>
-      <c r="BE39" s="81"/>
-      <c r="BF39" s="81"/>
-      <c r="BG39" s="81"/>
-      <c r="BH39" s="82"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="96"/>
+      <c r="BC39" s="96"/>
+      <c r="BD39" s="96"/>
+      <c r="BE39" s="96"/>
+      <c r="BF39" s="96"/>
+      <c r="BG39" s="96"/>
+      <c r="BH39" s="97"/>
       <c r="BI39" s="57"/>
     </row>
     <row r="40" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A40" s="97">
+      <c r="A40" s="91">
         <v>17</v>
       </c>
-      <c r="B40" s="98"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="83" t="s">
+      <c r="B40" s="92"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="89" t="s">
+      <c r="I40" s="86"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="94" t="s">
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="90"/>
-      <c r="AB40" s="90"/>
-      <c r="AC40" s="96" t="s">
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="81"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="AD40" s="90"/>
-      <c r="AE40" s="90"/>
-      <c r="AF40" s="90"/>
-      <c r="AG40" s="90"/>
-      <c r="AH40" s="90"/>
-      <c r="AI40" s="90"/>
-      <c r="AJ40" s="90"/>
-      <c r="AK40" s="90"/>
-      <c r="AL40" s="90"/>
-      <c r="AM40" s="91"/>
+      <c r="AD40" s="81"/>
+      <c r="AE40" s="81"/>
+      <c r="AF40" s="81"/>
+      <c r="AG40" s="81"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="81"/>
+      <c r="AJ40" s="81"/>
+      <c r="AK40" s="81"/>
+      <c r="AL40" s="81"/>
+      <c r="AM40" s="82"/>
       <c r="AN40" s="74" t="s">
         <v>28</v>
       </c>
@@ -8989,58 +9209,58 @@
       </c>
       <c r="AY40" s="75"/>
       <c r="AZ40" s="76"/>
-      <c r="BA40" s="80" t="s">
+      <c r="BA40" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="BB40" s="81"/>
-      <c r="BC40" s="81"/>
-      <c r="BD40" s="81"/>
-      <c r="BE40" s="81"/>
-      <c r="BF40" s="81"/>
-      <c r="BG40" s="81"/>
-      <c r="BH40" s="82"/>
+      <c r="BB40" s="96"/>
+      <c r="BC40" s="96"/>
+      <c r="BD40" s="96"/>
+      <c r="BE40" s="96"/>
+      <c r="BF40" s="96"/>
+      <c r="BG40" s="96"/>
+      <c r="BH40" s="97"/>
       <c r="BI40" s="59"/>
     </row>
     <row r="41" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A41" s="99"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="95"/>
-      <c r="U41" s="92"/>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
-      <c r="X41" s="92"/>
-      <c r="Y41" s="92"/>
-      <c r="Z41" s="92"/>
-      <c r="AA41" s="92"/>
-      <c r="AB41" s="92"/>
-      <c r="AC41" s="95"/>
-      <c r="AD41" s="92"/>
-      <c r="AE41" s="92"/>
-      <c r="AF41" s="92"/>
-      <c r="AG41" s="92"/>
-      <c r="AH41" s="92"/>
-      <c r="AI41" s="92"/>
-      <c r="AJ41" s="92"/>
-      <c r="AK41" s="92"/>
-      <c r="AL41" s="92"/>
-      <c r="AM41" s="93"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="99"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="83"/>
+      <c r="AC41" s="99"/>
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="83"/>
+      <c r="AF41" s="83"/>
+      <c r="AG41" s="83"/>
+      <c r="AH41" s="83"/>
+      <c r="AI41" s="83"/>
+      <c r="AJ41" s="83"/>
+      <c r="AK41" s="83"/>
+      <c r="AL41" s="83"/>
+      <c r="AM41" s="84"/>
       <c r="AN41" s="77"/>
       <c r="AO41" s="78"/>
       <c r="AP41" s="78"/>
@@ -9054,66 +9274,66 @@
       <c r="AX41" s="77"/>
       <c r="AY41" s="78"/>
       <c r="AZ41" s="79"/>
-      <c r="BA41" s="80"/>
-      <c r="BB41" s="81"/>
-      <c r="BC41" s="81"/>
-      <c r="BD41" s="81"/>
-      <c r="BE41" s="81"/>
-      <c r="BF41" s="81"/>
-      <c r="BG41" s="81"/>
-      <c r="BH41" s="82"/>
+      <c r="BA41" s="95"/>
+      <c r="BB41" s="96"/>
+      <c r="BC41" s="96"/>
+      <c r="BD41" s="96"/>
+      <c r="BE41" s="96"/>
+      <c r="BF41" s="96"/>
+      <c r="BG41" s="96"/>
+      <c r="BH41" s="97"/>
       <c r="BI41" s="57"/>
     </row>
     <row r="42" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A42" s="97">
+      <c r="A42" s="91">
         <v>18</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="83" t="s">
+      <c r="B42" s="92"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="89" t="s">
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="94" t="s">
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="90"/>
-      <c r="AA42" s="90"/>
-      <c r="AB42" s="90"/>
-      <c r="AC42" s="96" t="s">
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="81"/>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="AD42" s="90"/>
-      <c r="AE42" s="90"/>
-      <c r="AF42" s="90"/>
-      <c r="AG42" s="90"/>
-      <c r="AH42" s="90"/>
-      <c r="AI42" s="90"/>
-      <c r="AJ42" s="90"/>
-      <c r="AK42" s="90"/>
-      <c r="AL42" s="90"/>
-      <c r="AM42" s="91"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="81"/>
+      <c r="AF42" s="81"/>
+      <c r="AG42" s="81"/>
+      <c r="AH42" s="81"/>
+      <c r="AI42" s="81"/>
+      <c r="AJ42" s="81"/>
+      <c r="AK42" s="81"/>
+      <c r="AL42" s="81"/>
+      <c r="AM42" s="82"/>
       <c r="AN42" s="74" t="s">
         <v>28</v>
       </c>
@@ -9135,58 +9355,58 @@
       </c>
       <c r="AY42" s="75"/>
       <c r="AZ42" s="76"/>
-      <c r="BA42" s="80" t="s">
+      <c r="BA42" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="BB42" s="81"/>
-      <c r="BC42" s="81"/>
-      <c r="BD42" s="81"/>
-      <c r="BE42" s="81"/>
-      <c r="BF42" s="81"/>
-      <c r="BG42" s="81"/>
-      <c r="BH42" s="82"/>
+      <c r="BB42" s="96"/>
+      <c r="BC42" s="96"/>
+      <c r="BD42" s="96"/>
+      <c r="BE42" s="96"/>
+      <c r="BF42" s="96"/>
+      <c r="BG42" s="96"/>
+      <c r="BH42" s="97"/>
       <c r="BI42" s="18"/>
     </row>
     <row r="43" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="93"/>
-      <c r="T43" s="95"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="92"/>
-      <c r="AB43" s="92"/>
-      <c r="AC43" s="95"/>
-      <c r="AD43" s="92"/>
-      <c r="AE43" s="92"/>
-      <c r="AF43" s="92"/>
-      <c r="AG43" s="92"/>
-      <c r="AH43" s="92"/>
-      <c r="AI43" s="92"/>
-      <c r="AJ43" s="92"/>
-      <c r="AK43" s="92"/>
-      <c r="AL43" s="92"/>
-      <c r="AM43" s="93"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="83"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="99"/>
+      <c r="U43" s="83"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="83"/>
+      <c r="AB43" s="83"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="83"/>
+      <c r="AF43" s="83"/>
+      <c r="AG43" s="83"/>
+      <c r="AH43" s="83"/>
+      <c r="AI43" s="83"/>
+      <c r="AJ43" s="83"/>
+      <c r="AK43" s="83"/>
+      <c r="AL43" s="83"/>
+      <c r="AM43" s="84"/>
       <c r="AN43" s="77"/>
       <c r="AO43" s="78"/>
       <c r="AP43" s="78"/>
@@ -9200,66 +9420,66 @@
       <c r="AX43" s="77"/>
       <c r="AY43" s="78"/>
       <c r="AZ43" s="79"/>
-      <c r="BA43" s="80"/>
-      <c r="BB43" s="81"/>
-      <c r="BC43" s="81"/>
-      <c r="BD43" s="81"/>
-      <c r="BE43" s="81"/>
-      <c r="BF43" s="81"/>
-      <c r="BG43" s="81"/>
-      <c r="BH43" s="82"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="96"/>
+      <c r="BC43" s="96"/>
+      <c r="BD43" s="96"/>
+      <c r="BE43" s="96"/>
+      <c r="BF43" s="96"/>
+      <c r="BG43" s="96"/>
+      <c r="BH43" s="97"/>
       <c r="BI43" s="18"/>
     </row>
     <row r="44" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A44" s="97">
+      <c r="A44" s="91">
         <v>19</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="83" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="89" t="s">
+      <c r="I44" s="86"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
-      <c r="Q44" s="90"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="91"/>
-      <c r="T44" s="94" t="s">
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="U44" s="90"/>
-      <c r="V44" s="90"/>
-      <c r="W44" s="90"/>
-      <c r="X44" s="90"/>
-      <c r="Y44" s="90"/>
-      <c r="Z44" s="90"/>
-      <c r="AA44" s="90"/>
-      <c r="AB44" s="90"/>
-      <c r="AC44" s="96" t="s">
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
+      <c r="AA44" s="81"/>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="AD44" s="90"/>
-      <c r="AE44" s="90"/>
-      <c r="AF44" s="90"/>
-      <c r="AG44" s="90"/>
-      <c r="AH44" s="90"/>
-      <c r="AI44" s="90"/>
-      <c r="AJ44" s="90"/>
-      <c r="AK44" s="90"/>
-      <c r="AL44" s="90"/>
-      <c r="AM44" s="91"/>
+      <c r="AD44" s="81"/>
+      <c r="AE44" s="81"/>
+      <c r="AF44" s="81"/>
+      <c r="AG44" s="81"/>
+      <c r="AH44" s="81"/>
+      <c r="AI44" s="81"/>
+      <c r="AJ44" s="81"/>
+      <c r="AK44" s="81"/>
+      <c r="AL44" s="81"/>
+      <c r="AM44" s="82"/>
       <c r="AN44" s="74" t="s">
         <v>28</v>
       </c>
@@ -9281,58 +9501,58 @@
       </c>
       <c r="AY44" s="75"/>
       <c r="AZ44" s="76"/>
-      <c r="BA44" s="80" t="s">
+      <c r="BA44" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="BB44" s="81"/>
-      <c r="BC44" s="81"/>
-      <c r="BD44" s="81"/>
-      <c r="BE44" s="81"/>
-      <c r="BF44" s="81"/>
-      <c r="BG44" s="81"/>
-      <c r="BH44" s="82"/>
+      <c r="BB44" s="96"/>
+      <c r="BC44" s="96"/>
+      <c r="BD44" s="96"/>
+      <c r="BE44" s="96"/>
+      <c r="BF44" s="96"/>
+      <c r="BG44" s="96"/>
+      <c r="BH44" s="97"/>
       <c r="BI44" s="18"/>
     </row>
     <row r="45" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="95"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="92"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="95"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-      <c r="AF45" s="92"/>
-      <c r="AG45" s="92"/>
-      <c r="AH45" s="92"/>
-      <c r="AI45" s="92"/>
-      <c r="AJ45" s="92"/>
-      <c r="AK45" s="92"/>
-      <c r="AL45" s="92"/>
-      <c r="AM45" s="93"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="84"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="83"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="99"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="83"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="83"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="84"/>
       <c r="AN45" s="77"/>
       <c r="AO45" s="78"/>
       <c r="AP45" s="78"/>
@@ -9346,66 +9566,66 @@
       <c r="AX45" s="77"/>
       <c r="AY45" s="78"/>
       <c r="AZ45" s="79"/>
-      <c r="BA45" s="80"/>
-      <c r="BB45" s="81"/>
-      <c r="BC45" s="81"/>
-      <c r="BD45" s="81"/>
-      <c r="BE45" s="81"/>
-      <c r="BF45" s="81"/>
-      <c r="BG45" s="81"/>
-      <c r="BH45" s="82"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="96"/>
+      <c r="BC45" s="96"/>
+      <c r="BD45" s="96"/>
+      <c r="BE45" s="96"/>
+      <c r="BF45" s="96"/>
+      <c r="BG45" s="96"/>
+      <c r="BH45" s="97"/>
       <c r="BI45" s="18"/>
     </row>
     <row r="46" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A46" s="97">
+      <c r="A46" s="91">
         <v>20</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="83" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="89" t="s">
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="N46" s="90"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="90"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="91"/>
-      <c r="T46" s="94" t="s">
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="U46" s="90"/>
-      <c r="V46" s="90"/>
-      <c r="W46" s="90"/>
-      <c r="X46" s="90"/>
-      <c r="Y46" s="90"/>
-      <c r="Z46" s="90"/>
-      <c r="AA46" s="90"/>
-      <c r="AB46" s="90"/>
-      <c r="AC46" s="96" t="s">
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="81"/>
+      <c r="AB46" s="81"/>
+      <c r="AC46" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="AD46" s="90"/>
-      <c r="AE46" s="90"/>
-      <c r="AF46" s="90"/>
-      <c r="AG46" s="90"/>
-      <c r="AH46" s="90"/>
-      <c r="AI46" s="90"/>
-      <c r="AJ46" s="90"/>
-      <c r="AK46" s="90"/>
-      <c r="AL46" s="90"/>
-      <c r="AM46" s="91"/>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="81"/>
+      <c r="AF46" s="81"/>
+      <c r="AG46" s="81"/>
+      <c r="AH46" s="81"/>
+      <c r="AI46" s="81"/>
+      <c r="AJ46" s="81"/>
+      <c r="AK46" s="81"/>
+      <c r="AL46" s="81"/>
+      <c r="AM46" s="82"/>
       <c r="AN46" s="74" t="s">
         <v>28</v>
       </c>
@@ -9427,58 +9647,58 @@
       </c>
       <c r="AY46" s="75"/>
       <c r="AZ46" s="76"/>
-      <c r="BA46" s="167" t="s">
+      <c r="BA46" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="BB46" s="168"/>
-      <c r="BC46" s="168"/>
-      <c r="BD46" s="168"/>
-      <c r="BE46" s="168"/>
-      <c r="BF46" s="168"/>
-      <c r="BG46" s="168"/>
-      <c r="BH46" s="169"/>
+      <c r="BB46" s="113"/>
+      <c r="BC46" s="113"/>
+      <c r="BD46" s="113"/>
+      <c r="BE46" s="113"/>
+      <c r="BF46" s="113"/>
+      <c r="BG46" s="113"/>
+      <c r="BH46" s="114"/>
       <c r="BI46" s="18"/>
     </row>
     <row r="47" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A47" s="99"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="95"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="92"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="92"/>
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="95"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="92"/>
-      <c r="AF47" s="92"/>
-      <c r="AG47" s="92"/>
-      <c r="AH47" s="92"/>
-      <c r="AI47" s="92"/>
-      <c r="AJ47" s="92"/>
-      <c r="AK47" s="92"/>
-      <c r="AL47" s="92"/>
-      <c r="AM47" s="93"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="84"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="83"/>
+      <c r="Y47" s="83"/>
+      <c r="Z47" s="83"/>
+      <c r="AA47" s="83"/>
+      <c r="AB47" s="83"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="83"/>
+      <c r="AE47" s="83"/>
+      <c r="AF47" s="83"/>
+      <c r="AG47" s="83"/>
+      <c r="AH47" s="83"/>
+      <c r="AI47" s="83"/>
+      <c r="AJ47" s="83"/>
+      <c r="AK47" s="83"/>
+      <c r="AL47" s="83"/>
+      <c r="AM47" s="84"/>
       <c r="AN47" s="77"/>
       <c r="AO47" s="78"/>
       <c r="AP47" s="78"/>
@@ -9492,18 +9712,253 @@
       <c r="AX47" s="77"/>
       <c r="AY47" s="78"/>
       <c r="AZ47" s="79"/>
-      <c r="BA47" s="104"/>
-      <c r="BB47" s="105"/>
-      <c r="BC47" s="105"/>
-      <c r="BD47" s="105"/>
-      <c r="BE47" s="105"/>
-      <c r="BF47" s="105"/>
-      <c r="BG47" s="105"/>
-      <c r="BH47" s="106"/>
+      <c r="BA47" s="115"/>
+      <c r="BB47" s="116"/>
+      <c r="BC47" s="116"/>
+      <c r="BD47" s="116"/>
+      <c r="BE47" s="116"/>
+      <c r="BF47" s="116"/>
+      <c r="BG47" s="116"/>
+      <c r="BH47" s="117"/>
       <c r="BI47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="AN42:AQ43"/>
+    <mergeCell ref="AR42:AT43"/>
+    <mergeCell ref="AU42:AW43"/>
+    <mergeCell ref="AX42:AZ43"/>
+    <mergeCell ref="BA42:BH42"/>
+    <mergeCell ref="BA43:BH43"/>
+    <mergeCell ref="BA44:BH44"/>
+    <mergeCell ref="BA45:BH45"/>
+    <mergeCell ref="AX44:AZ45"/>
+    <mergeCell ref="AU44:AW45"/>
+    <mergeCell ref="AR44:AT45"/>
+    <mergeCell ref="AN44:AQ45"/>
+    <mergeCell ref="H42:L43"/>
+    <mergeCell ref="M42:S43"/>
+    <mergeCell ref="T42:AB43"/>
+    <mergeCell ref="AC42:AM43"/>
+    <mergeCell ref="H44:L45"/>
+    <mergeCell ref="M44:S45"/>
+    <mergeCell ref="T44:AB45"/>
+    <mergeCell ref="AC44:AM45"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C36:G47"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="H36:L37"/>
+    <mergeCell ref="M36:S37"/>
+    <mergeCell ref="T36:AB37"/>
+    <mergeCell ref="AC36:AM37"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="BA8:BH8"/>
+    <mergeCell ref="AX8:AZ9"/>
+    <mergeCell ref="AU8:AW9"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AN8:AQ9"/>
+    <mergeCell ref="BA9:BH9"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="AR10:AT11"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AZ11"/>
+    <mergeCell ref="BA11:BH11"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="T8:AB9"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="C8:G25"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="H18:L19"/>
+    <mergeCell ref="M18:S19"/>
+    <mergeCell ref="T18:AB19"/>
+    <mergeCell ref="AC18:AM19"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="H24:L25"/>
+    <mergeCell ref="M24:S25"/>
+    <mergeCell ref="T24:AB25"/>
+    <mergeCell ref="AC24:AM25"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:L13"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="BA10:BH10"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AU16:AW17"/>
+    <mergeCell ref="AU46:AW47"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="AX16:AZ17"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="BA46:BH46"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="H16:L17"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="BA47:BH47"/>
+    <mergeCell ref="AC46:AM47"/>
+    <mergeCell ref="T46:AB47"/>
+    <mergeCell ref="M46:S47"/>
+    <mergeCell ref="H46:L47"/>
+    <mergeCell ref="AX46:AZ47"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="M16:S17"/>
+    <mergeCell ref="T16:AB17"/>
+    <mergeCell ref="AC16:AM17"/>
+    <mergeCell ref="BA14:BH14"/>
+    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AN46:AQ47"/>
+    <mergeCell ref="AN16:AQ17"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AR16:AT17"/>
+    <mergeCell ref="AR46:AT47"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AX18:AZ19"/>
+    <mergeCell ref="BA18:BH18"/>
+    <mergeCell ref="BA19:BH19"/>
+    <mergeCell ref="AX20:AZ21"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="AX24:AZ25"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="AX26:AZ27"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="AN18:AQ19"/>
+    <mergeCell ref="AR18:AT19"/>
+    <mergeCell ref="AU18:AW19"/>
+    <mergeCell ref="AX22:AZ23"/>
+    <mergeCell ref="BA22:BH22"/>
+    <mergeCell ref="BA23:BH23"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="H20:L21"/>
+    <mergeCell ref="M20:S21"/>
+    <mergeCell ref="T20:AB21"/>
+    <mergeCell ref="AC20:AM21"/>
+    <mergeCell ref="AN20:AQ21"/>
+    <mergeCell ref="AR20:AT21"/>
+    <mergeCell ref="AU20:AW21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="H22:L23"/>
+    <mergeCell ref="M22:S23"/>
+    <mergeCell ref="T22:AB23"/>
+    <mergeCell ref="AC22:AM23"/>
+    <mergeCell ref="AN22:AQ23"/>
+    <mergeCell ref="AR22:AT23"/>
+    <mergeCell ref="AU22:AW23"/>
+    <mergeCell ref="AN24:AQ25"/>
+    <mergeCell ref="AR24:AT25"/>
+    <mergeCell ref="AU24:AW25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="H26:L27"/>
+    <mergeCell ref="M26:S27"/>
+    <mergeCell ref="T26:AB27"/>
+    <mergeCell ref="AC26:AM27"/>
+    <mergeCell ref="AN26:AQ27"/>
+    <mergeCell ref="AR26:AT27"/>
+    <mergeCell ref="AU26:AW27"/>
+    <mergeCell ref="C26:G35"/>
+    <mergeCell ref="AU34:AW35"/>
+    <mergeCell ref="AR34:AT35"/>
+    <mergeCell ref="AN34:AQ35"/>
+    <mergeCell ref="AC34:AM35"/>
+    <mergeCell ref="T34:AB35"/>
+    <mergeCell ref="AX34:AZ35"/>
+    <mergeCell ref="AX28:AZ29"/>
+    <mergeCell ref="BA28:BH28"/>
+    <mergeCell ref="BA29:BH29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="H30:L31"/>
+    <mergeCell ref="M30:S31"/>
+    <mergeCell ref="T30:AB31"/>
+    <mergeCell ref="AC30:AM31"/>
+    <mergeCell ref="AN30:AQ31"/>
+    <mergeCell ref="AR30:AT31"/>
+    <mergeCell ref="AU30:AW31"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="H28:L29"/>
+    <mergeCell ref="M28:S29"/>
+    <mergeCell ref="T28:AB29"/>
+    <mergeCell ref="AC28:AM29"/>
+    <mergeCell ref="AN28:AQ29"/>
+    <mergeCell ref="AR28:AT29"/>
+    <mergeCell ref="AU28:AW29"/>
+    <mergeCell ref="BA30:BH30"/>
+    <mergeCell ref="AX40:AZ41"/>
+    <mergeCell ref="BA40:BH40"/>
+    <mergeCell ref="BA41:BH41"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="H38:L39"/>
+    <mergeCell ref="M38:S39"/>
+    <mergeCell ref="T38:AB39"/>
+    <mergeCell ref="AC38:AM39"/>
+    <mergeCell ref="AN38:AQ39"/>
+    <mergeCell ref="AR38:AT39"/>
+    <mergeCell ref="AU38:AW39"/>
+    <mergeCell ref="AX38:AZ39"/>
+    <mergeCell ref="BA38:BH38"/>
+    <mergeCell ref="BA39:BH39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="H40:L41"/>
+    <mergeCell ref="M40:S41"/>
+    <mergeCell ref="T40:AB41"/>
+    <mergeCell ref="AC40:AM41"/>
+    <mergeCell ref="AN40:AQ41"/>
+    <mergeCell ref="AR40:AT41"/>
+    <mergeCell ref="AU40:AW41"/>
     <mergeCell ref="AN36:AQ37"/>
     <mergeCell ref="AR36:AT37"/>
     <mergeCell ref="AU36:AW37"/>
@@ -9528,241 +9983,6 @@
     <mergeCell ref="BA33:BH33"/>
     <mergeCell ref="BA34:BH34"/>
     <mergeCell ref="BA35:BH35"/>
-    <mergeCell ref="AX40:AZ41"/>
-    <mergeCell ref="BA40:BH40"/>
-    <mergeCell ref="BA41:BH41"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="H38:L39"/>
-    <mergeCell ref="M38:S39"/>
-    <mergeCell ref="T38:AB39"/>
-    <mergeCell ref="AC38:AM39"/>
-    <mergeCell ref="AN38:AQ39"/>
-    <mergeCell ref="AR38:AT39"/>
-    <mergeCell ref="AU38:AW39"/>
-    <mergeCell ref="AX38:AZ39"/>
-    <mergeCell ref="BA38:BH38"/>
-    <mergeCell ref="BA39:BH39"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="H40:L41"/>
-    <mergeCell ref="M40:S41"/>
-    <mergeCell ref="T40:AB41"/>
-    <mergeCell ref="AC40:AM41"/>
-    <mergeCell ref="AN40:AQ41"/>
-    <mergeCell ref="AR40:AT41"/>
-    <mergeCell ref="AU40:AW41"/>
-    <mergeCell ref="AX34:AZ35"/>
-    <mergeCell ref="AX28:AZ29"/>
-    <mergeCell ref="BA28:BH28"/>
-    <mergeCell ref="BA29:BH29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="H30:L31"/>
-    <mergeCell ref="M30:S31"/>
-    <mergeCell ref="T30:AB31"/>
-    <mergeCell ref="AC30:AM31"/>
-    <mergeCell ref="AN30:AQ31"/>
-    <mergeCell ref="AR30:AT31"/>
-    <mergeCell ref="AU30:AW31"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="H28:L29"/>
-    <mergeCell ref="M28:S29"/>
-    <mergeCell ref="T28:AB29"/>
-    <mergeCell ref="AC28:AM29"/>
-    <mergeCell ref="AN28:AQ29"/>
-    <mergeCell ref="AR28:AT29"/>
-    <mergeCell ref="AU28:AW29"/>
-    <mergeCell ref="BA30:BH30"/>
-    <mergeCell ref="AN24:AQ25"/>
-    <mergeCell ref="AR24:AT25"/>
-    <mergeCell ref="AU24:AW25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="H26:L27"/>
-    <mergeCell ref="M26:S27"/>
-    <mergeCell ref="T26:AB27"/>
-    <mergeCell ref="AC26:AM27"/>
-    <mergeCell ref="AN26:AQ27"/>
-    <mergeCell ref="AR26:AT27"/>
-    <mergeCell ref="AU26:AW27"/>
-    <mergeCell ref="C26:G35"/>
-    <mergeCell ref="AU34:AW35"/>
-    <mergeCell ref="AR34:AT35"/>
-    <mergeCell ref="AN34:AQ35"/>
-    <mergeCell ref="AC34:AM35"/>
-    <mergeCell ref="T34:AB35"/>
-    <mergeCell ref="AX22:AZ23"/>
-    <mergeCell ref="BA22:BH22"/>
-    <mergeCell ref="BA23:BH23"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="H20:L21"/>
-    <mergeCell ref="M20:S21"/>
-    <mergeCell ref="T20:AB21"/>
-    <mergeCell ref="AC20:AM21"/>
-    <mergeCell ref="AN20:AQ21"/>
-    <mergeCell ref="AR20:AT21"/>
-    <mergeCell ref="AU20:AW21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="H22:L23"/>
-    <mergeCell ref="M22:S23"/>
-    <mergeCell ref="T22:AB23"/>
-    <mergeCell ref="AC22:AM23"/>
-    <mergeCell ref="AN22:AQ23"/>
-    <mergeCell ref="AR22:AT23"/>
-    <mergeCell ref="AU22:AW23"/>
-    <mergeCell ref="BA14:BH14"/>
-    <mergeCell ref="BA15:BH15"/>
-    <mergeCell ref="AN14:AQ15"/>
-    <mergeCell ref="AN46:AQ47"/>
-    <mergeCell ref="AN16:AQ17"/>
-    <mergeCell ref="AR14:AT15"/>
-    <mergeCell ref="AR16:AT17"/>
-    <mergeCell ref="AR46:AT47"/>
-    <mergeCell ref="AU14:AW15"/>
-    <mergeCell ref="AX18:AZ19"/>
-    <mergeCell ref="BA18:BH18"/>
-    <mergeCell ref="BA19:BH19"/>
-    <mergeCell ref="AX20:AZ21"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="AX24:AZ25"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="AX26:AZ27"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="AN18:AQ19"/>
-    <mergeCell ref="AR18:AT19"/>
-    <mergeCell ref="AU18:AW19"/>
-    <mergeCell ref="AU16:AW17"/>
-    <mergeCell ref="AU46:AW47"/>
-    <mergeCell ref="AX14:AZ15"/>
-    <mergeCell ref="AX16:AZ17"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="BA46:BH46"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="M14:S15"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="AC14:AM15"/>
-    <mergeCell ref="H16:L17"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="BA47:BH47"/>
-    <mergeCell ref="AC46:AM47"/>
-    <mergeCell ref="T46:AB47"/>
-    <mergeCell ref="M46:S47"/>
-    <mergeCell ref="H46:L47"/>
-    <mergeCell ref="AX46:AZ47"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="M16:S17"/>
-    <mergeCell ref="T16:AB17"/>
-    <mergeCell ref="AC16:AM17"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BH2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AN3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="BA10:BH10"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AU6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="AN6:AQ7"/>
-    <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="AN10:AQ11"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AN12:AQ13"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="H3:AI4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="T6:AB7"/>
-    <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="T8:AB9"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="C8:G25"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="H18:L19"/>
-    <mergeCell ref="M18:S19"/>
-    <mergeCell ref="T18:AB19"/>
-    <mergeCell ref="AC18:AM19"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="H24:L25"/>
-    <mergeCell ref="M24:S25"/>
-    <mergeCell ref="T24:AB25"/>
-    <mergeCell ref="AC24:AM25"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:L13"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="BA8:BH8"/>
-    <mergeCell ref="AX8:AZ9"/>
-    <mergeCell ref="AU8:AW9"/>
-    <mergeCell ref="AR8:AT9"/>
-    <mergeCell ref="AN8:AQ9"/>
-    <mergeCell ref="BA9:BH9"/>
-    <mergeCell ref="AC8:AM9"/>
-    <mergeCell ref="AC10:AM11"/>
-    <mergeCell ref="AR10:AT11"/>
-    <mergeCell ref="AU10:AW11"/>
-    <mergeCell ref="AX10:AZ11"/>
-    <mergeCell ref="BA11:BH11"/>
-    <mergeCell ref="H42:L43"/>
-    <mergeCell ref="M42:S43"/>
-    <mergeCell ref="T42:AB43"/>
-    <mergeCell ref="AC42:AM43"/>
-    <mergeCell ref="H44:L45"/>
-    <mergeCell ref="M44:S45"/>
-    <mergeCell ref="T44:AB45"/>
-    <mergeCell ref="AC44:AM45"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C36:G47"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="H36:L37"/>
-    <mergeCell ref="M36:S37"/>
-    <mergeCell ref="T36:AB37"/>
-    <mergeCell ref="AC36:AM37"/>
-    <mergeCell ref="AN42:AQ43"/>
-    <mergeCell ref="AR42:AT43"/>
-    <mergeCell ref="AU42:AW43"/>
-    <mergeCell ref="AX42:AZ43"/>
-    <mergeCell ref="BA42:BH42"/>
-    <mergeCell ref="BA43:BH43"/>
-    <mergeCell ref="BA44:BH44"/>
-    <mergeCell ref="BA45:BH45"/>
-    <mergeCell ref="AX44:AZ45"/>
-    <mergeCell ref="AU44:AW45"/>
-    <mergeCell ref="AR44:AT45"/>
-    <mergeCell ref="AN44:AQ45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR26 AR28 AR10 AR12 AR14 AR16 AR18 AR20 AR22 AR24 AR30 AR32 AR34 AR36 AR38 AR40 AR42 AR44 AR46">
@@ -9795,11 +10015,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF449"/>
+  <dimension ref="A1:AF389"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A184" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="V206" sqref="V206"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
@@ -9869,245 +10087,359 @@
     <row r="16" spans="1:5">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:5">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:5">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:5">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:5">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:5">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:5">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:5">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:5">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="64">
+    <row r="25" spans="1:5">
+      <c r="A25" s="64">
         <v>2</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="64">
+      <c r="B25" s="56"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="62"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1">
+      <c r="A27" s="70"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="62"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1">
+      <c r="A28" s="70"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="62"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1">
+      <c r="A29" s="70"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="62"/>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1">
+      <c r="A30" s="70"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="62"/>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1">
+      <c r="A31" s="70"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="62"/>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1">
+      <c r="A32" s="70"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="62"/>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1">
+      <c r="A33" s="70"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="62"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1">
+      <c r="A34" s="70"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="62"/>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1">
+      <c r="A35" s="70"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="62"/>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1">
+      <c r="A36" s="70"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="62"/>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1">
+      <c r="A37" s="70"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="62"/>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1">
+      <c r="A38" s="70"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="62"/>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1">
+      <c r="A39" s="70"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="62"/>
+    </row>
+    <row r="40" spans="1:3" s="1" customFormat="1">
+      <c r="A40" s="70"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="62"/>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1">
+      <c r="A41" s="70"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="62"/>
+    </row>
+    <row r="42" spans="1:3" s="1" customFormat="1">
+      <c r="A42" s="70"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="62"/>
+    </row>
+    <row r="43" spans="1:3" s="1" customFormat="1">
+      <c r="A43" s="70"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="62"/>
+    </row>
+    <row r="44" spans="1:3" s="1" customFormat="1">
+      <c r="A44" s="70"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="62"/>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1">
+      <c r="A45" s="70"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="62"/>
+    </row>
+    <row r="46" spans="1:3" s="1" customFormat="1">
+      <c r="A46" s="70"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="62"/>
+    </row>
+    <row r="47" spans="1:3" s="1" customFormat="1">
+      <c r="A47" s="70"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="62"/>
+    </row>
+    <row r="48" spans="1:3" s="1" customFormat="1">
+      <c r="A48" s="70"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="62"/>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1">
+      <c r="A49" s="70"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="62"/>
+    </row>
+    <row r="50" spans="1:3" s="1" customFormat="1">
+      <c r="A50" s="70"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="62"/>
+    </row>
+    <row r="51" spans="1:3" s="1" customFormat="1">
+      <c r="A51" s="70"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="62"/>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1">
+      <c r="A52" s="70"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="62"/>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1">
+      <c r="A53" s="70"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="62"/>
+    </row>
+    <row r="54" spans="1:3" s="1" customFormat="1">
+      <c r="A54" s="70"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="62"/>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1">
+      <c r="A55" s="70"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="62"/>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1">
+      <c r="A56" s="70"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="62"/>
+    </row>
+    <row r="57" spans="1:3" s="1" customFormat="1">
+      <c r="A57" s="70"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="62"/>
+    </row>
+    <row r="58" spans="1:3" s="1" customFormat="1">
+      <c r="A58" s="70"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="62"/>
+    </row>
+    <row r="59" spans="1:3" s="1" customFormat="1">
+      <c r="A59" s="70"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="62"/>
+    </row>
+    <row r="60" spans="1:3" s="1" customFormat="1">
+      <c r="A60" s="70"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="62"/>
+    </row>
+    <row r="61" spans="1:3" s="1" customFormat="1">
+      <c r="A61" s="70"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="62"/>
+    </row>
+    <row r="62" spans="1:3" s="1" customFormat="1">
+      <c r="A62" s="70"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="62"/>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1">
+      <c r="A63" s="70"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="62"/>
+    </row>
+    <row r="64" spans="1:3" s="1" customFormat="1">
+      <c r="A64" s="70"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="62"/>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1">
+      <c r="A65" s="70"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="62"/>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1">
+      <c r="A66" s="70"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="62"/>
+    </row>
+    <row r="67" spans="1:3" s="1" customFormat="1">
+      <c r="A67" s="70"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="62"/>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1">
+      <c r="A68" s="70"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="62"/>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1">
+      <c r="A69" s="70"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="62"/>
+    </row>
+    <row r="70" spans="1:3" s="1" customFormat="1">
+      <c r="A70" s="70"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="62"/>
+    </row>
+    <row r="71" spans="1:3" s="1" customFormat="1">
+      <c r="A71" s="70"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="62"/>
+    </row>
+    <row r="72" spans="1:3" s="1" customFormat="1">
+      <c r="A72" s="70"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="62"/>
+    </row>
+    <row r="73" spans="1:3" s="1" customFormat="1">
+      <c r="A73" s="70"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="62"/>
+    </row>
+    <row r="74" spans="1:3" s="1" customFormat="1">
+      <c r="A74" s="70"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="62"/>
+    </row>
+    <row r="75" spans="1:3" s="1" customFormat="1">
+      <c r="A75" s="70"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="62"/>
+    </row>
+    <row r="76" spans="1:3" s="1" customFormat="1">
+      <c r="A76" s="70"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="62"/>
+    </row>
+    <row r="77" spans="1:3" s="1" customFormat="1">
+      <c r="A77" s="70"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="62"/>
+    </row>
+    <row r="78" spans="1:3" s="1" customFormat="1">
+      <c r="A78" s="70"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="62"/>
+    </row>
+    <row r="79" spans="1:3" s="1" customFormat="1">
+      <c r="A79" s="70"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="62"/>
+    </row>
+    <row r="80" spans="1:3" s="1" customFormat="1">
+      <c r="A80" s="70"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="62"/>
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1">
+      <c r="A81" s="70"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="62"/>
+    </row>
+    <row r="82" spans="1:5" s="1" customFormat="1">
+      <c r="A82" s="70"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="62"/>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="64">
         <v>3</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="71">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="71">
         <v>4</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="53">
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="53">
         <v>5</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="53">
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="53">
         <v>6</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="C64" s="9"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="9"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="9"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="9"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="3:3">
-      <c r="C75" s="9"/>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="9"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="9"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="C83" s="9"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="C85" s="9"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="C86" s="9"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5">
       <c r="C87" s="9"/>
@@ -10122,37 +10454,25 @@
       <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="65"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:5">
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" ht="15">
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:5">
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:5">
       <c r="C94" s="9"/>
     </row>
+    <row r="95" spans="1:5">
+      <c r="C95" s="9"/>
+    </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="64">
-        <v>7</v>
-      </c>
-      <c r="B96" s="68"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="53">
-        <v>8</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="5"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:5">
       <c r="C98" s="9"/>
@@ -10175,20 +10495,29 @@
     <row r="104" spans="1:5">
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:5">
-      <c r="C105" s="9"/>
+    <row r="105" spans="1:5" ht="15">
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:5">
       <c r="C106" s="9"/>
     </row>
-    <row r="107" spans="1:5">
-      <c r="C107" s="9"/>
-    </row>
     <row r="108" spans="1:5">
-      <c r="C108" s="9"/>
+      <c r="A108" s="64">
+        <v>7</v>
+      </c>
+      <c r="B108" s="68"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="C109" s="9"/>
+      <c r="A109" s="53">
+        <v>8</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5">
       <c r="C110" s="9"/>
@@ -10199,46 +10528,52 @@
     <row r="112" spans="1:5">
       <c r="C112" s="9"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="3:3">
       <c r="C113" s="9"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="3:3">
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="3:3">
       <c r="C115" s="9"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="3:3">
       <c r="C116" s="9"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="3:3">
       <c r="C117" s="9"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="3:3">
       <c r="C118" s="9"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="3:3">
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="3:3">
       <c r="C120" s="9"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="3:3">
       <c r="C121" s="9"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="122" spans="3:3">
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="9"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="9"/>
+    </row>
+    <row r="125" spans="3:3">
       <c r="C125" s="9"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="3:3">
       <c r="C126" s="9"/>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="65"/>
-      <c r="B127" s="66"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-    </row>
-    <row r="128" spans="1:4">
+    <row r="127" spans="3:3">
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="3:3">
       <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:5">
@@ -10253,118 +10588,468 @@
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="133" spans="1:5" ht="21" customHeight="1"/>
-    <row r="134" spans="1:5" ht="21" customHeight="1"/>
-    <row r="135" spans="1:5" ht="21" customHeight="1"/>
-    <row r="136" spans="1:5" ht="21" customHeight="1"/>
-    <row r="137" spans="1:5" ht="21" customHeight="1"/>
-    <row r="138" spans="1:5" ht="21" customHeight="1"/>
-    <row r="139" spans="1:5" ht="21" customHeight="1"/>
-    <row r="140" spans="1:5" ht="21" customHeight="1"/>
-    <row r="141" spans="1:5" ht="21" customHeight="1"/>
-    <row r="142" spans="1:5" ht="21" customHeight="1"/>
-    <row r="143" spans="1:5" ht="21" customHeight="1"/>
-    <row r="144" spans="1:5" ht="21" customHeight="1"/>
-    <row r="145" ht="21" customHeight="1"/>
-    <row r="146" ht="21" customHeight="1"/>
-    <row r="175" spans="1:4">
-      <c r="C175" s="9"/>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="65"/>
-      <c r="B176" s="66"/>
-      <c r="C176" s="67"/>
-      <c r="D176" s="67"/>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="65"/>
-      <c r="B177" s="66"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="67"/>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="65"/>
-      <c r="B178" s="66"/>
-      <c r="C178" s="67"/>
-      <c r="D178" s="67"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="65"/>
-      <c r="B179" s="66"/>
-      <c r="C179" s="67"/>
-      <c r="D179" s="67"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="65"/>
-      <c r="B180" s="66"/>
-      <c r="C180" s="67"/>
-      <c r="D180" s="67"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="65"/>
-      <c r="B181" s="66"/>
-      <c r="C181" s="67"/>
-      <c r="D181" s="67"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="65"/>
-      <c r="B182" s="66"/>
-      <c r="C182" s="67"/>
-      <c r="D182" s="67"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="C183" s="9"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="C184" s="9"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="C185" s="9"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="C189" s="9"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="C190" s="9"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="53">
+    <row r="131" spans="1:5">
+      <c r="A131" s="53">
         <v>10</v>
       </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="5"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="53">
+      <c r="B131" s="3"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="53">
         <v>11</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="5"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="C209" s="9"/>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="C210" s="9"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="C150" s="9"/>
+    </row>
+    <row r="151" spans="1:5" s="1" customFormat="1">
+      <c r="A151" s="65"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="67"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="64">
+        <v>12</v>
+      </c>
+      <c r="B152" s="56"/>
+      <c r="C152" s="64"/>
+      <c r="D152" s="64"/>
+      <c r="E152" s="64"/>
+    </row>
+    <row r="153" spans="1:5" s="1" customFormat="1">
+      <c r="A153" s="70"/>
+      <c r="B153" s="63"/>
+      <c r="C153" s="70"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="70"/>
+    </row>
+    <row r="154" spans="1:5" s="1" customFormat="1">
+      <c r="A154" s="70"/>
+      <c r="B154" s="63"/>
+      <c r="C154" s="70"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="70"/>
+    </row>
+    <row r="155" spans="1:5" s="1" customFormat="1">
+      <c r="A155" s="70"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="70"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+    </row>
+    <row r="156" spans="1:5" s="1" customFormat="1">
+      <c r="A156" s="70"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="70"/>
+      <c r="E156" s="70"/>
+    </row>
+    <row r="157" spans="1:5" s="1" customFormat="1">
+      <c r="A157" s="70"/>
+      <c r="B157" s="63"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+    </row>
+    <row r="158" spans="1:5" s="1" customFormat="1">
+      <c r="A158" s="70"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="70"/>
+    </row>
+    <row r="159" spans="1:5" s="1" customFormat="1">
+      <c r="A159" s="70"/>
+      <c r="B159" s="63"/>
+      <c r="C159" s="70"/>
+      <c r="D159" s="70"/>
+      <c r="E159" s="70"/>
+    </row>
+    <row r="160" spans="1:5" s="1" customFormat="1">
+      <c r="A160" s="70"/>
+      <c r="B160" s="63"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+    </row>
+    <row r="161" spans="1:5" s="1" customFormat="1">
+      <c r="A161" s="70"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="70"/>
+      <c r="D161" s="70"/>
+      <c r="E161" s="70"/>
+    </row>
+    <row r="162" spans="1:5" s="1" customFormat="1">
+      <c r="A162" s="70"/>
+      <c r="B162" s="63"/>
+      <c r="C162" s="70"/>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70"/>
+    </row>
+    <row r="163" spans="1:5" s="1" customFormat="1">
+      <c r="A163" s="70"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+    </row>
+    <row r="164" spans="1:5" s="1" customFormat="1">
+      <c r="A164" s="70"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="70"/>
+      <c r="D164" s="70"/>
+      <c r="E164" s="70"/>
+    </row>
+    <row r="165" spans="1:5" s="1" customFormat="1">
+      <c r="A165" s="70"/>
+      <c r="B165" s="63"/>
+      <c r="C165" s="70"/>
+      <c r="D165" s="70"/>
+      <c r="E165" s="70"/>
+    </row>
+    <row r="166" spans="1:5" s="1" customFormat="1">
+      <c r="A166" s="70"/>
+      <c r="B166" s="63"/>
+      <c r="C166" s="70"/>
+      <c r="D166" s="70"/>
+      <c r="E166" s="70"/>
+    </row>
+    <row r="167" spans="1:5" s="1" customFormat="1">
+      <c r="A167" s="70"/>
+      <c r="B167" s="63"/>
+      <c r="C167" s="70"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+    </row>
+    <row r="168" spans="1:5" s="1" customFormat="1">
+      <c r="A168" s="70"/>
+      <c r="B168" s="63"/>
+      <c r="C168" s="70"/>
+      <c r="D168" s="70"/>
+      <c r="E168" s="70"/>
+    </row>
+    <row r="169" spans="1:5" s="1" customFormat="1">
+      <c r="A169" s="70"/>
+      <c r="B169" s="63"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+    </row>
+    <row r="170" spans="1:5" s="1" customFormat="1">
+      <c r="A170" s="70"/>
+      <c r="B170" s="63"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+    </row>
+    <row r="171" spans="1:5" s="1" customFormat="1">
+      <c r="A171" s="70"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+    </row>
+    <row r="172" spans="1:5" s="1" customFormat="1">
+      <c r="A172" s="70"/>
+      <c r="B172" s="63"/>
+      <c r="C172" s="70"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="70"/>
+    </row>
+    <row r="173" spans="1:5" s="62" customFormat="1">
+      <c r="A173" s="70"/>
+      <c r="B173" s="63"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="64">
+        <v>13</v>
+      </c>
+      <c r="B174" s="56"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="64"/>
+    </row>
+    <row r="175" spans="1:5" s="1" customFormat="1">
+      <c r="A175" s="70"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="70"/>
+      <c r="E175" s="70"/>
+    </row>
+    <row r="176" spans="1:5" s="1" customFormat="1">
+      <c r="A176" s="70"/>
+      <c r="B176" s="63"/>
+      <c r="C176" s="70"/>
+      <c r="D176" s="70"/>
+      <c r="E176" s="70"/>
+    </row>
+    <row r="177" spans="1:5" s="1" customFormat="1">
+      <c r="A177" s="70"/>
+      <c r="B177" s="63"/>
+      <c r="C177" s="70"/>
+      <c r="D177" s="70"/>
+      <c r="E177" s="70"/>
+    </row>
+    <row r="178" spans="1:5" s="1" customFormat="1">
+      <c r="A178" s="70"/>
+      <c r="B178" s="63"/>
+      <c r="C178" s="70"/>
+      <c r="D178" s="70"/>
+      <c r="E178" s="70"/>
+    </row>
+    <row r="179" spans="1:5" s="1" customFormat="1">
+      <c r="A179" s="70"/>
+      <c r="B179" s="63"/>
+      <c r="C179" s="70"/>
+      <c r="D179" s="70"/>
+      <c r="E179" s="70"/>
+    </row>
+    <row r="180" spans="1:5" s="1" customFormat="1">
+      <c r="A180" s="70"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="70"/>
+      <c r="D180" s="70"/>
+      <c r="E180" s="70"/>
+    </row>
+    <row r="181" spans="1:5" s="1" customFormat="1">
+      <c r="A181" s="70"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="70"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+    </row>
+    <row r="182" spans="1:5" s="1" customFormat="1">
+      <c r="A182" s="70"/>
+      <c r="B182" s="63"/>
+      <c r="C182" s="70"/>
+      <c r="D182" s="70"/>
+      <c r="E182" s="70"/>
+    </row>
+    <row r="183" spans="1:5" s="1" customFormat="1">
+      <c r="A183" s="70"/>
+      <c r="B183" s="63"/>
+      <c r="C183" s="70"/>
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+    </row>
+    <row r="184" spans="1:5" s="1" customFormat="1">
+      <c r="A184" s="70"/>
+      <c r="B184" s="63"/>
+      <c r="C184" s="70"/>
+      <c r="D184" s="70"/>
+      <c r="E184" s="70"/>
+    </row>
+    <row r="185" spans="1:5" s="1" customFormat="1">
+      <c r="A185" s="70"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="70"/>
+      <c r="D185" s="70"/>
+      <c r="E185" s="70"/>
+    </row>
+    <row r="186" spans="1:5" s="1" customFormat="1">
+      <c r="A186" s="70"/>
+      <c r="B186" s="63"/>
+      <c r="C186" s="70"/>
+      <c r="D186" s="70"/>
+      <c r="E186" s="70"/>
+    </row>
+    <row r="187" spans="1:5" s="1" customFormat="1">
+      <c r="A187" s="70"/>
+      <c r="B187" s="63"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="70"/>
+      <c r="E187" s="70"/>
+    </row>
+    <row r="188" spans="1:5" s="1" customFormat="1">
+      <c r="A188" s="70"/>
+      <c r="B188" s="63"/>
+      <c r="C188" s="70"/>
+      <c r="D188" s="70"/>
+      <c r="E188" s="70"/>
+    </row>
+    <row r="189" spans="1:5" s="1" customFormat="1">
+      <c r="A189" s="70"/>
+      <c r="B189" s="63"/>
+      <c r="C189" s="70"/>
+      <c r="D189" s="70"/>
+      <c r="E189" s="70"/>
+    </row>
+    <row r="190" spans="1:5" s="1" customFormat="1">
+      <c r="A190" s="70"/>
+      <c r="B190" s="63"/>
+      <c r="C190" s="70"/>
+      <c r="D190" s="70"/>
+      <c r="E190" s="70"/>
+    </row>
+    <row r="191" spans="1:5" s="1" customFormat="1">
+      <c r="A191" s="70"/>
+      <c r="B191" s="63"/>
+      <c r="C191" s="70"/>
+      <c r="D191" s="70"/>
+      <c r="E191" s="70"/>
+    </row>
+    <row r="192" spans="1:5" s="1" customFormat="1">
+      <c r="A192" s="70"/>
+      <c r="B192" s="63"/>
+      <c r="C192" s="70"/>
+      <c r="D192" s="70"/>
+      <c r="E192" s="70"/>
+    </row>
+    <row r="193" spans="1:5" s="1" customFormat="1">
+      <c r="A193" s="70"/>
+      <c r="B193" s="63"/>
+      <c r="C193" s="70"/>
+      <c r="D193" s="70"/>
+      <c r="E193" s="70"/>
+    </row>
+    <row r="194" spans="1:5" s="1" customFormat="1">
+      <c r="A194" s="70"/>
+      <c r="B194" s="63"/>
+      <c r="C194" s="70"/>
+      <c r="D194" s="70"/>
+      <c r="E194" s="70"/>
+    </row>
+    <row r="195" spans="1:5" s="1" customFormat="1">
+      <c r="A195" s="70"/>
+      <c r="B195" s="63"/>
+      <c r="C195" s="70"/>
+      <c r="D195" s="70"/>
+      <c r="E195" s="70"/>
+    </row>
+    <row r="196" spans="1:5" s="1" customFormat="1">
+      <c r="A196" s="70"/>
+      <c r="B196" s="63"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="70"/>
+    </row>
+    <row r="197" spans="1:5" s="1" customFormat="1">
+      <c r="A197" s="70"/>
+      <c r="B197" s="63"/>
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="70"/>
+    </row>
+    <row r="198" spans="1:5" s="1" customFormat="1">
+      <c r="A198" s="70"/>
+      <c r="B198" s="63"/>
+      <c r="C198" s="70"/>
+      <c r="D198" s="70"/>
+      <c r="E198" s="70"/>
+    </row>
+    <row r="199" spans="1:5" s="1" customFormat="1">
+      <c r="A199" s="70"/>
+      <c r="B199" s="63"/>
+      <c r="C199" s="70"/>
+      <c r="D199" s="70"/>
+      <c r="E199" s="70"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="64">
+        <v>14</v>
+      </c>
+      <c r="B200" s="56"/>
+      <c r="C200" s="64"/>
+      <c r="D200" s="64"/>
+      <c r="E200" s="64"/>
+    </row>
+    <row r="201" spans="1:5" s="1" customFormat="1">
+      <c r="A201" s="70"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="70"/>
+      <c r="D201" s="70"/>
+      <c r="E201" s="70"/>
+    </row>
+    <row r="202" spans="1:5" s="1" customFormat="1">
+      <c r="A202" s="70"/>
+      <c r="B202" s="63"/>
+      <c r="C202" s="70"/>
+      <c r="D202" s="70"/>
+      <c r="E202" s="70"/>
+    </row>
+    <row r="203" spans="1:5" s="1" customFormat="1">
+      <c r="A203" s="70"/>
+      <c r="B203" s="63"/>
+      <c r="C203" s="70"/>
+      <c r="D203" s="70"/>
+      <c r="E203" s="70"/>
+    </row>
+    <row r="204" spans="1:5" s="1" customFormat="1">
+      <c r="A204" s="70"/>
+      <c r="B204" s="63"/>
+      <c r="C204" s="70"/>
+      <c r="D204" s="70"/>
+      <c r="E204" s="70"/>
+    </row>
+    <row r="205" spans="1:5" s="1" customFormat="1">
+      <c r="A205" s="70"/>
+      <c r="B205" s="63"/>
+      <c r="C205" s="70"/>
+      <c r="D205" s="70"/>
+      <c r="E205" s="70"/>
+    </row>
+    <row r="206" spans="1:5" s="1" customFormat="1">
+      <c r="A206" s="70"/>
+      <c r="B206" s="63"/>
+      <c r="C206" s="70"/>
+      <c r="D206" s="70"/>
+      <c r="E206" s="70"/>
+    </row>
+    <row r="207" spans="1:5" s="1" customFormat="1">
+      <c r="A207" s="70"/>
+      <c r="B207" s="63"/>
+      <c r="C207" s="70"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="70"/>
+    </row>
+    <row r="208" spans="1:5" s="1" customFormat="1">
+      <c r="A208" s="70"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="70"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="70"/>
+    </row>
+    <row r="209" spans="1:5" s="1" customFormat="1">
+      <c r="A209" s="70"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+    </row>
+    <row r="210" spans="1:5" s="1" customFormat="1">
+      <c r="A210" s="70"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="70"/>
+      <c r="D210" s="70"/>
+      <c r="E210" s="70"/>
     </row>
     <row r="211" spans="1:5" s="1" customFormat="1">
-      <c r="A211" s="65"/>
-      <c r="B211" s="66"/>
-      <c r="C211" s="67"/>
-      <c r="D211" s="67"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="64">
-        <v>12</v>
-      </c>
-      <c r="B212" s="56"/>
-      <c r="C212" s="64"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="64"/>
+      <c r="A211" s="70"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="70"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="70"/>
+    </row>
+    <row r="212" spans="1:5" s="1" customFormat="1">
+      <c r="A212" s="70"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="70"/>
+      <c r="D212" s="70"/>
+      <c r="E212" s="70"/>
     </row>
     <row r="213" spans="1:5" s="1" customFormat="1">
       <c r="A213" s="70"/>
@@ -10506,21 +11191,19 @@
       <c r="D232" s="70"/>
       <c r="E232" s="70"/>
     </row>
-    <row r="233" spans="1:5" s="62" customFormat="1">
+    <row r="233" spans="1:5" s="1" customFormat="1">
       <c r="A233" s="70"/>
       <c r="B233" s="63"/>
       <c r="C233" s="70"/>
       <c r="D233" s="70"/>
       <c r="E233" s="70"/>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="64">
-        <v>13</v>
-      </c>
-      <c r="B234" s="56"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="64"/>
+    <row r="234" spans="1:5" s="1" customFormat="1">
+      <c r="A234" s="70"/>
+      <c r="B234" s="63"/>
+      <c r="C234" s="70"/>
+      <c r="D234" s="70"/>
+      <c r="E234" s="70"/>
     </row>
     <row r="235" spans="1:5" s="1" customFormat="1">
       <c r="A235" s="70"/>
@@ -10536,12 +11219,14 @@
       <c r="D236" s="70"/>
       <c r="E236" s="70"/>
     </row>
-    <row r="237" spans="1:5" s="1" customFormat="1">
-      <c r="A237" s="70"/>
-      <c r="B237" s="63"/>
-      <c r="C237" s="70"/>
-      <c r="D237" s="70"/>
-      <c r="E237" s="70"/>
+    <row r="237" spans="1:5">
+      <c r="A237" s="64">
+        <v>15</v>
+      </c>
+      <c r="B237" s="56"/>
+      <c r="C237" s="64"/>
+      <c r="D237" s="64"/>
+      <c r="E237" s="64"/>
     </row>
     <row r="238" spans="1:5" s="1" customFormat="1">
       <c r="A238" s="70"/>
@@ -10697,14 +11382,12 @@
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
     </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="64">
-        <v>14</v>
-      </c>
-      <c r="B260" s="56"/>
-      <c r="C260" s="64"/>
-      <c r="D260" s="64"/>
-      <c r="E260" s="64"/>
+    <row r="260" spans="1:5" s="1" customFormat="1">
+      <c r="A260" s="70"/>
+      <c r="B260" s="63"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="70"/>
+      <c r="E260" s="70"/>
     </row>
     <row r="261" spans="1:5" s="1" customFormat="1">
       <c r="A261" s="70"/>
@@ -10874,12 +11557,14 @@
       <c r="D284" s="70"/>
       <c r="E284" s="70"/>
     </row>
-    <row r="285" spans="1:5" s="1" customFormat="1">
-      <c r="A285" s="70"/>
-      <c r="B285" s="63"/>
-      <c r="C285" s="70"/>
-      <c r="D285" s="70"/>
-      <c r="E285" s="70"/>
+    <row r="285" spans="1:5">
+      <c r="A285" s="64">
+        <v>16</v>
+      </c>
+      <c r="B285" s="56"/>
+      <c r="C285" s="64"/>
+      <c r="D285" s="64"/>
+      <c r="E285" s="64"/>
     </row>
     <row r="286" spans="1:5" s="1" customFormat="1">
       <c r="A286" s="70"/>
@@ -10958,14 +11643,12 @@
       <c r="D296" s="70"/>
       <c r="E296" s="70"/>
     </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="64">
-        <v>15</v>
-      </c>
-      <c r="B297" s="56"/>
-      <c r="C297" s="64"/>
-      <c r="D297" s="64"/>
-      <c r="E297" s="64"/>
+    <row r="297" spans="1:5" s="1" customFormat="1">
+      <c r="A297" s="70"/>
+      <c r="B297" s="63"/>
+      <c r="C297" s="70"/>
+      <c r="D297" s="70"/>
+      <c r="E297" s="70"/>
     </row>
     <row r="298" spans="1:5" s="1" customFormat="1">
       <c r="A298" s="70"/>
@@ -11023,140 +11706,142 @@
       <c r="D305" s="70"/>
       <c r="E305" s="70"/>
     </row>
-    <row r="306" spans="1:5" s="1" customFormat="1">
-      <c r="A306" s="70"/>
-      <c r="B306" s="63"/>
-      <c r="C306" s="70"/>
-      <c r="D306" s="70"/>
-      <c r="E306" s="70"/>
-    </row>
-    <row r="307" spans="1:5" s="1" customFormat="1">
+    <row r="306" spans="1:5">
+      <c r="A306" s="64">
+        <v>17</v>
+      </c>
+      <c r="B306" s="56"/>
+      <c r="C306" s="64"/>
+      <c r="D306" s="64"/>
+      <c r="E306" s="64"/>
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="70"/>
       <c r="B307" s="63"/>
       <c r="C307" s="70"/>
       <c r="D307" s="70"/>
       <c r="E307" s="70"/>
     </row>
-    <row r="308" spans="1:5" s="1" customFormat="1">
+    <row r="308" spans="1:5">
       <c r="A308" s="70"/>
       <c r="B308" s="63"/>
       <c r="C308" s="70"/>
       <c r="D308" s="70"/>
       <c r="E308" s="70"/>
     </row>
-    <row r="309" spans="1:5" s="1" customFormat="1">
+    <row r="309" spans="1:5">
       <c r="A309" s="70"/>
       <c r="B309" s="63"/>
       <c r="C309" s="70"/>
       <c r="D309" s="70"/>
       <c r="E309" s="70"/>
     </row>
-    <row r="310" spans="1:5" s="1" customFormat="1">
+    <row r="310" spans="1:5">
       <c r="A310" s="70"/>
       <c r="B310" s="63"/>
       <c r="C310" s="70"/>
       <c r="D310" s="70"/>
       <c r="E310" s="70"/>
     </row>
-    <row r="311" spans="1:5" s="1" customFormat="1">
+    <row r="311" spans="1:5">
       <c r="A311" s="70"/>
       <c r="B311" s="63"/>
       <c r="C311" s="70"/>
       <c r="D311" s="70"/>
       <c r="E311" s="70"/>
     </row>
-    <row r="312" spans="1:5" s="1" customFormat="1">
+    <row r="312" spans="1:5">
       <c r="A312" s="70"/>
       <c r="B312" s="63"/>
       <c r="C312" s="70"/>
       <c r="D312" s="70"/>
       <c r="E312" s="70"/>
     </row>
-    <row r="313" spans="1:5" s="1" customFormat="1">
+    <row r="313" spans="1:5">
       <c r="A313" s="70"/>
       <c r="B313" s="63"/>
       <c r="C313" s="70"/>
       <c r="D313" s="70"/>
       <c r="E313" s="70"/>
     </row>
-    <row r="314" spans="1:5" s="1" customFormat="1">
+    <row r="314" spans="1:5">
       <c r="A314" s="70"/>
       <c r="B314" s="63"/>
       <c r="C314" s="70"/>
       <c r="D314" s="70"/>
       <c r="E314" s="70"/>
     </row>
-    <row r="315" spans="1:5" s="1" customFormat="1">
+    <row r="315" spans="1:5">
       <c r="A315" s="70"/>
       <c r="B315" s="63"/>
       <c r="C315" s="70"/>
       <c r="D315" s="70"/>
       <c r="E315" s="70"/>
     </row>
-    <row r="316" spans="1:5" s="1" customFormat="1">
+    <row r="316" spans="1:5">
       <c r="A316" s="70"/>
       <c r="B316" s="63"/>
       <c r="C316" s="70"/>
       <c r="D316" s="70"/>
       <c r="E316" s="70"/>
     </row>
-    <row r="317" spans="1:5" s="1" customFormat="1">
+    <row r="317" spans="1:5">
       <c r="A317" s="70"/>
       <c r="B317" s="63"/>
       <c r="C317" s="70"/>
       <c r="D317" s="70"/>
       <c r="E317" s="70"/>
     </row>
-    <row r="318" spans="1:5" s="1" customFormat="1">
+    <row r="318" spans="1:5">
       <c r="A318" s="70"/>
       <c r="B318" s="63"/>
       <c r="C318" s="70"/>
       <c r="D318" s="70"/>
       <c r="E318" s="70"/>
     </row>
-    <row r="319" spans="1:5" s="1" customFormat="1">
+    <row r="319" spans="1:5">
       <c r="A319" s="70"/>
       <c r="B319" s="63"/>
       <c r="C319" s="70"/>
       <c r="D319" s="70"/>
       <c r="E319" s="70"/>
     </row>
-    <row r="320" spans="1:5" s="1" customFormat="1">
+    <row r="320" spans="1:5">
       <c r="A320" s="70"/>
       <c r="B320" s="63"/>
       <c r="C320" s="70"/>
       <c r="D320" s="70"/>
       <c r="E320" s="70"/>
     </row>
-    <row r="321" spans="1:5" s="1" customFormat="1">
+    <row r="321" spans="1:5">
       <c r="A321" s="70"/>
       <c r="B321" s="63"/>
       <c r="C321" s="70"/>
       <c r="D321" s="70"/>
       <c r="E321" s="70"/>
     </row>
-    <row r="322" spans="1:5" s="1" customFormat="1">
+    <row r="322" spans="1:5">
       <c r="A322" s="70"/>
       <c r="B322" s="63"/>
       <c r="C322" s="70"/>
       <c r="D322" s="70"/>
       <c r="E322" s="70"/>
     </row>
-    <row r="323" spans="1:5" s="1" customFormat="1">
+    <row r="323" spans="1:5">
       <c r="A323" s="70"/>
       <c r="B323" s="63"/>
       <c r="C323" s="70"/>
       <c r="D323" s="70"/>
       <c r="E323" s="70"/>
     </row>
-    <row r="324" spans="1:5" s="1" customFormat="1">
+    <row r="324" spans="1:5">
       <c r="A324" s="70"/>
       <c r="B324" s="63"/>
       <c r="C324" s="70"/>
       <c r="D324" s="70"/>
       <c r="E324" s="70"/>
     </row>
-    <row r="325" spans="1:5" s="1" customFormat="1">
+    <row r="325" spans="1:5">
       <c r="A325" s="70"/>
       <c r="B325" s="63"/>
       <c r="C325" s="70"/>
@@ -11170,12 +11855,14 @@
       <c r="D326" s="70"/>
       <c r="E326" s="70"/>
     </row>
-    <row r="327" spans="1:5" s="1" customFormat="1">
-      <c r="A327" s="70"/>
-      <c r="B327" s="63"/>
-      <c r="C327" s="70"/>
-      <c r="D327" s="70"/>
-      <c r="E327" s="70"/>
+    <row r="327" spans="1:5">
+      <c r="A327" s="64">
+        <v>18</v>
+      </c>
+      <c r="B327" s="56"/>
+      <c r="C327" s="64"/>
+      <c r="D327" s="64"/>
+      <c r="E327" s="64"/>
     </row>
     <row r="328" spans="1:5" s="1" customFormat="1">
       <c r="A328" s="70"/>
@@ -11296,14 +11983,12 @@
       <c r="D344" s="70"/>
       <c r="E344" s="70"/>
     </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="64">
-        <v>16</v>
-      </c>
-      <c r="B345" s="56"/>
-      <c r="C345" s="64"/>
-      <c r="D345" s="64"/>
-      <c r="E345" s="64"/>
+    <row r="345" spans="1:5" s="1" customFormat="1">
+      <c r="A345" s="70"/>
+      <c r="B345" s="63"/>
+      <c r="C345" s="70"/>
+      <c r="D345" s="70"/>
+      <c r="E345" s="70"/>
     </row>
     <row r="346" spans="1:5" s="1" customFormat="1">
       <c r="A346" s="70"/>
@@ -11319,12 +12004,14 @@
       <c r="D347" s="70"/>
       <c r="E347" s="70"/>
     </row>
-    <row r="348" spans="1:5" s="1" customFormat="1">
-      <c r="A348" s="70"/>
-      <c r="B348" s="63"/>
-      <c r="C348" s="70"/>
-      <c r="D348" s="70"/>
-      <c r="E348" s="70"/>
+    <row r="348" spans="1:5">
+      <c r="A348" s="64">
+        <v>19</v>
+      </c>
+      <c r="B348" s="56"/>
+      <c r="C348" s="64"/>
+      <c r="D348" s="64"/>
+      <c r="E348" s="64"/>
     </row>
     <row r="349" spans="1:5" s="1" customFormat="1">
       <c r="A349" s="70"/>
@@ -11445,23 +12132,21 @@
       <c r="D365" s="70"/>
       <c r="E365" s="70"/>
     </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="64">
-        <v>17</v>
-      </c>
-      <c r="B366" s="56"/>
-      <c r="C366" s="64"/>
-      <c r="D366" s="64"/>
-      <c r="E366" s="64"/>
-    </row>
-    <row r="367" spans="1:5">
+    <row r="366" spans="1:5" s="1" customFormat="1">
+      <c r="A366" s="70"/>
+      <c r="B366" s="63"/>
+      <c r="C366" s="70"/>
+      <c r="D366" s="70"/>
+      <c r="E366" s="70"/>
+    </row>
+    <row r="367" spans="1:5" s="1" customFormat="1">
       <c r="A367" s="70"/>
       <c r="B367" s="63"/>
       <c r="C367" s="70"/>
       <c r="D367" s="70"/>
       <c r="E367" s="70"/>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" s="1" customFormat="1">
       <c r="A368" s="70"/>
       <c r="B368" s="63"/>
       <c r="C368" s="70"/>
@@ -11469,118 +12154,120 @@
       <c r="E368" s="70"/>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="70"/>
-      <c r="B369" s="63"/>
-      <c r="C369" s="70"/>
-      <c r="D369" s="70"/>
-      <c r="E369" s="70"/>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="A369" s="64">
+        <v>20</v>
+      </c>
+      <c r="B369" s="56"/>
+      <c r="C369" s="64"/>
+      <c r="D369" s="64"/>
+      <c r="E369" s="64"/>
+    </row>
+    <row r="370" spans="1:5" s="1" customFormat="1">
       <c r="A370" s="70"/>
       <c r="B370" s="63"/>
       <c r="C370" s="70"/>
       <c r="D370" s="70"/>
       <c r="E370" s="70"/>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" s="1" customFormat="1">
       <c r="A371" s="70"/>
       <c r="B371" s="63"/>
       <c r="C371" s="70"/>
       <c r="D371" s="70"/>
       <c r="E371" s="70"/>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" s="1" customFormat="1">
       <c r="A372" s="70"/>
       <c r="B372" s="63"/>
       <c r="C372" s="70"/>
       <c r="D372" s="70"/>
       <c r="E372" s="70"/>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" s="1" customFormat="1">
       <c r="A373" s="70"/>
       <c r="B373" s="63"/>
       <c r="C373" s="70"/>
       <c r="D373" s="70"/>
       <c r="E373" s="70"/>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" s="1" customFormat="1">
       <c r="A374" s="70"/>
       <c r="B374" s="63"/>
       <c r="C374" s="70"/>
       <c r="D374" s="70"/>
       <c r="E374" s="70"/>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" s="1" customFormat="1">
       <c r="A375" s="70"/>
       <c r="B375" s="63"/>
       <c r="C375" s="70"/>
       <c r="D375" s="70"/>
       <c r="E375" s="70"/>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" s="1" customFormat="1">
       <c r="A376" s="70"/>
       <c r="B376" s="63"/>
       <c r="C376" s="70"/>
       <c r="D376" s="70"/>
       <c r="E376" s="70"/>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" s="1" customFormat="1">
       <c r="A377" s="70"/>
       <c r="B377" s="63"/>
       <c r="C377" s="70"/>
       <c r="D377" s="70"/>
       <c r="E377" s="70"/>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" s="1" customFormat="1">
       <c r="A378" s="70"/>
       <c r="B378" s="63"/>
       <c r="C378" s="70"/>
       <c r="D378" s="70"/>
       <c r="E378" s="70"/>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" s="1" customFormat="1">
       <c r="A379" s="70"/>
       <c r="B379" s="63"/>
       <c r="C379" s="70"/>
       <c r="D379" s="70"/>
       <c r="E379" s="70"/>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" s="1" customFormat="1">
       <c r="A380" s="70"/>
       <c r="B380" s="63"/>
       <c r="C380" s="70"/>
       <c r="D380" s="70"/>
       <c r="E380" s="70"/>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" s="1" customFormat="1">
       <c r="A381" s="70"/>
       <c r="B381" s="63"/>
       <c r="C381" s="70"/>
       <c r="D381" s="70"/>
       <c r="E381" s="70"/>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" s="1" customFormat="1">
       <c r="A382" s="70"/>
       <c r="B382" s="63"/>
       <c r="C382" s="70"/>
       <c r="D382" s="70"/>
       <c r="E382" s="70"/>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" s="1" customFormat="1">
       <c r="A383" s="70"/>
       <c r="B383" s="63"/>
       <c r="C383" s="70"/>
       <c r="D383" s="70"/>
       <c r="E383" s="70"/>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" s="1" customFormat="1">
       <c r="A384" s="70"/>
       <c r="B384" s="63"/>
       <c r="C384" s="70"/>
       <c r="D384" s="70"/>
       <c r="E384" s="70"/>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" s="1" customFormat="1">
       <c r="A385" s="70"/>
       <c r="B385" s="63"/>
       <c r="C385" s="70"/>
@@ -11594,14 +12281,12 @@
       <c r="D386" s="70"/>
       <c r="E386" s="70"/>
     </row>
-    <row r="387" spans="1:5">
-      <c r="A387" s="64">
-        <v>18</v>
-      </c>
-      <c r="B387" s="56"/>
-      <c r="C387" s="64"/>
-      <c r="D387" s="64"/>
-      <c r="E387" s="64"/>
+    <row r="387" spans="1:5" s="1" customFormat="1">
+      <c r="A387" s="70"/>
+      <c r="B387" s="63"/>
+      <c r="C387" s="70"/>
+      <c r="D387" s="70"/>
+      <c r="E387" s="70"/>
     </row>
     <row r="388" spans="1:5" s="1" customFormat="1">
       <c r="A388" s="70"/>
@@ -11611,431 +12296,7 @@
       <c r="E388" s="70"/>
     </row>
     <row r="389" spans="1:5" s="1" customFormat="1">
-      <c r="A389" s="70"/>
-      <c r="B389" s="63"/>
-      <c r="C389" s="70"/>
-      <c r="D389" s="70"/>
-      <c r="E389" s="70"/>
-    </row>
-    <row r="390" spans="1:5" s="1" customFormat="1">
-      <c r="A390" s="70"/>
-      <c r="B390" s="63"/>
-      <c r="C390" s="70"/>
-      <c r="D390" s="70"/>
-      <c r="E390" s="70"/>
-    </row>
-    <row r="391" spans="1:5" s="1" customFormat="1">
-      <c r="A391" s="70"/>
-      <c r="B391" s="63"/>
-      <c r="C391" s="70"/>
-      <c r="D391" s="70"/>
-      <c r="E391" s="70"/>
-    </row>
-    <row r="392" spans="1:5" s="1" customFormat="1">
-      <c r="A392" s="70"/>
-      <c r="B392" s="63"/>
-      <c r="C392" s="70"/>
-      <c r="D392" s="70"/>
-      <c r="E392" s="70"/>
-    </row>
-    <row r="393" spans="1:5" s="1" customFormat="1">
-      <c r="A393" s="70"/>
-      <c r="B393" s="63"/>
-      <c r="C393" s="70"/>
-      <c r="D393" s="70"/>
-      <c r="E393" s="70"/>
-    </row>
-    <row r="394" spans="1:5" s="1" customFormat="1">
-      <c r="A394" s="70"/>
-      <c r="B394" s="63"/>
-      <c r="C394" s="70"/>
-      <c r="D394" s="70"/>
-      <c r="E394" s="70"/>
-    </row>
-    <row r="395" spans="1:5" s="1" customFormat="1">
-      <c r="A395" s="70"/>
-      <c r="B395" s="63"/>
-      <c r="C395" s="70"/>
-      <c r="D395" s="70"/>
-      <c r="E395" s="70"/>
-    </row>
-    <row r="396" spans="1:5" s="1" customFormat="1">
-      <c r="A396" s="70"/>
-      <c r="B396" s="63"/>
-      <c r="C396" s="70"/>
-      <c r="D396" s="70"/>
-      <c r="E396" s="70"/>
-    </row>
-    <row r="397" spans="1:5" s="1" customFormat="1">
-      <c r="A397" s="70"/>
-      <c r="B397" s="63"/>
-      <c r="C397" s="70"/>
-      <c r="D397" s="70"/>
-      <c r="E397" s="70"/>
-    </row>
-    <row r="398" spans="1:5" s="1" customFormat="1">
-      <c r="A398" s="70"/>
-      <c r="B398" s="63"/>
-      <c r="C398" s="70"/>
-      <c r="D398" s="70"/>
-      <c r="E398" s="70"/>
-    </row>
-    <row r="399" spans="1:5" s="1" customFormat="1">
-      <c r="A399" s="70"/>
-      <c r="B399" s="63"/>
-      <c r="C399" s="70"/>
-      <c r="D399" s="70"/>
-      <c r="E399" s="70"/>
-    </row>
-    <row r="400" spans="1:5" s="1" customFormat="1">
-      <c r="A400" s="70"/>
-      <c r="B400" s="63"/>
-      <c r="C400" s="70"/>
-      <c r="D400" s="70"/>
-      <c r="E400" s="70"/>
-    </row>
-    <row r="401" spans="1:5" s="1" customFormat="1">
-      <c r="A401" s="70"/>
-      <c r="B401" s="63"/>
-      <c r="C401" s="70"/>
-      <c r="D401" s="70"/>
-      <c r="E401" s="70"/>
-    </row>
-    <row r="402" spans="1:5" s="1" customFormat="1">
-      <c r="A402" s="70"/>
-      <c r="B402" s="63"/>
-      <c r="C402" s="70"/>
-      <c r="D402" s="70"/>
-      <c r="E402" s="70"/>
-    </row>
-    <row r="403" spans="1:5" s="1" customFormat="1">
-      <c r="A403" s="70"/>
-      <c r="B403" s="63"/>
-      <c r="C403" s="70"/>
-      <c r="D403" s="70"/>
-      <c r="E403" s="70"/>
-    </row>
-    <row r="404" spans="1:5" s="1" customFormat="1">
-      <c r="A404" s="70"/>
-      <c r="B404" s="63"/>
-      <c r="C404" s="70"/>
-      <c r="D404" s="70"/>
-      <c r="E404" s="70"/>
-    </row>
-    <row r="405" spans="1:5" s="1" customFormat="1">
-      <c r="A405" s="70"/>
-      <c r="B405" s="63"/>
-      <c r="C405" s="70"/>
-      <c r="D405" s="70"/>
-      <c r="E405" s="70"/>
-    </row>
-    <row r="406" spans="1:5" s="1" customFormat="1">
-      <c r="A406" s="70"/>
-      <c r="B406" s="63"/>
-      <c r="C406" s="70"/>
-      <c r="D406" s="70"/>
-      <c r="E406" s="70"/>
-    </row>
-    <row r="407" spans="1:5" s="1" customFormat="1">
-      <c r="A407" s="70"/>
-      <c r="B407" s="63"/>
-      <c r="C407" s="70"/>
-      <c r="D407" s="70"/>
-      <c r="E407" s="70"/>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="64">
-        <v>19</v>
-      </c>
-      <c r="B408" s="56"/>
-      <c r="C408" s="64"/>
-      <c r="D408" s="64"/>
-      <c r="E408" s="64"/>
-    </row>
-    <row r="409" spans="1:5" s="1" customFormat="1">
-      <c r="A409" s="70"/>
-      <c r="B409" s="63"/>
-      <c r="C409" s="70"/>
-      <c r="D409" s="70"/>
-      <c r="E409" s="70"/>
-    </row>
-    <row r="410" spans="1:5" s="1" customFormat="1">
-      <c r="A410" s="70"/>
-      <c r="B410" s="63"/>
-      <c r="C410" s="70"/>
-      <c r="D410" s="70"/>
-      <c r="E410" s="70"/>
-    </row>
-    <row r="411" spans="1:5" s="1" customFormat="1">
-      <c r="A411" s="70"/>
-      <c r="B411" s="63"/>
-      <c r="C411" s="70"/>
-      <c r="D411" s="70"/>
-      <c r="E411" s="70"/>
-    </row>
-    <row r="412" spans="1:5" s="1" customFormat="1">
-      <c r="A412" s="70"/>
-      <c r="B412" s="63"/>
-      <c r="C412" s="70"/>
-      <c r="D412" s="70"/>
-      <c r="E412" s="70"/>
-    </row>
-    <row r="413" spans="1:5" s="1" customFormat="1">
-      <c r="A413" s="70"/>
-      <c r="B413" s="63"/>
-      <c r="C413" s="70"/>
-      <c r="D413" s="70"/>
-      <c r="E413" s="70"/>
-    </row>
-    <row r="414" spans="1:5" s="1" customFormat="1">
-      <c r="A414" s="70"/>
-      <c r="B414" s="63"/>
-      <c r="C414" s="70"/>
-      <c r="D414" s="70"/>
-      <c r="E414" s="70"/>
-    </row>
-    <row r="415" spans="1:5" s="1" customFormat="1">
-      <c r="A415" s="70"/>
-      <c r="B415" s="63"/>
-      <c r="C415" s="70"/>
-      <c r="D415" s="70"/>
-      <c r="E415" s="70"/>
-    </row>
-    <row r="416" spans="1:5" s="1" customFormat="1">
-      <c r="A416" s="70"/>
-      <c r="B416" s="63"/>
-      <c r="C416" s="70"/>
-      <c r="D416" s="70"/>
-      <c r="E416" s="70"/>
-    </row>
-    <row r="417" spans="1:5" s="1" customFormat="1">
-      <c r="A417" s="70"/>
-      <c r="B417" s="63"/>
-      <c r="C417" s="70"/>
-      <c r="D417" s="70"/>
-      <c r="E417" s="70"/>
-    </row>
-    <row r="418" spans="1:5" s="1" customFormat="1">
-      <c r="A418" s="70"/>
-      <c r="B418" s="63"/>
-      <c r="C418" s="70"/>
-      <c r="D418" s="70"/>
-      <c r="E418" s="70"/>
-    </row>
-    <row r="419" spans="1:5" s="1" customFormat="1">
-      <c r="A419" s="70"/>
-      <c r="B419" s="63"/>
-      <c r="C419" s="70"/>
-      <c r="D419" s="70"/>
-      <c r="E419" s="70"/>
-    </row>
-    <row r="420" spans="1:5" s="1" customFormat="1">
-      <c r="A420" s="70"/>
-      <c r="B420" s="63"/>
-      <c r="C420" s="70"/>
-      <c r="D420" s="70"/>
-      <c r="E420" s="70"/>
-    </row>
-    <row r="421" spans="1:5" s="1" customFormat="1">
-      <c r="A421" s="70"/>
-      <c r="B421" s="63"/>
-      <c r="C421" s="70"/>
-      <c r="D421" s="70"/>
-      <c r="E421" s="70"/>
-    </row>
-    <row r="422" spans="1:5" s="1" customFormat="1">
-      <c r="A422" s="70"/>
-      <c r="B422" s="63"/>
-      <c r="C422" s="70"/>
-      <c r="D422" s="70"/>
-      <c r="E422" s="70"/>
-    </row>
-    <row r="423" spans="1:5" s="1" customFormat="1">
-      <c r="A423" s="70"/>
-      <c r="B423" s="63"/>
-      <c r="C423" s="70"/>
-      <c r="D423" s="70"/>
-      <c r="E423" s="70"/>
-    </row>
-    <row r="424" spans="1:5" s="1" customFormat="1">
-      <c r="A424" s="70"/>
-      <c r="B424" s="63"/>
-      <c r="C424" s="70"/>
-      <c r="D424" s="70"/>
-      <c r="E424" s="70"/>
-    </row>
-    <row r="425" spans="1:5" s="1" customFormat="1">
-      <c r="A425" s="70"/>
-      <c r="B425" s="63"/>
-      <c r="C425" s="70"/>
-      <c r="D425" s="70"/>
-      <c r="E425" s="70"/>
-    </row>
-    <row r="426" spans="1:5" s="1" customFormat="1">
-      <c r="A426" s="70"/>
-      <c r="B426" s="63"/>
-      <c r="C426" s="70"/>
-      <c r="D426" s="70"/>
-      <c r="E426" s="70"/>
-    </row>
-    <row r="427" spans="1:5" s="1" customFormat="1">
-      <c r="A427" s="70"/>
-      <c r="B427" s="63"/>
-      <c r="C427" s="70"/>
-      <c r="D427" s="70"/>
-      <c r="E427" s="70"/>
-    </row>
-    <row r="428" spans="1:5" s="1" customFormat="1">
-      <c r="A428" s="70"/>
-      <c r="B428" s="63"/>
-      <c r="C428" s="70"/>
-      <c r="D428" s="70"/>
-      <c r="E428" s="70"/>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" s="64">
-        <v>20</v>
-      </c>
-      <c r="B429" s="56"/>
-      <c r="C429" s="64"/>
-      <c r="D429" s="64"/>
-      <c r="E429" s="64"/>
-    </row>
-    <row r="430" spans="1:5" s="1" customFormat="1">
-      <c r="A430" s="70"/>
-      <c r="B430" s="63"/>
-      <c r="C430" s="70"/>
-      <c r="D430" s="70"/>
-      <c r="E430" s="70"/>
-    </row>
-    <row r="431" spans="1:5" s="1" customFormat="1">
-      <c r="A431" s="70"/>
-      <c r="B431" s="63"/>
-      <c r="C431" s="70"/>
-      <c r="D431" s="70"/>
-      <c r="E431" s="70"/>
-    </row>
-    <row r="432" spans="1:5" s="1" customFormat="1">
-      <c r="A432" s="70"/>
-      <c r="B432" s="63"/>
-      <c r="C432" s="70"/>
-      <c r="D432" s="70"/>
-      <c r="E432" s="70"/>
-    </row>
-    <row r="433" spans="1:5" s="1" customFormat="1">
-      <c r="A433" s="70"/>
-      <c r="B433" s="63"/>
-      <c r="C433" s="70"/>
-      <c r="D433" s="70"/>
-      <c r="E433" s="70"/>
-    </row>
-    <row r="434" spans="1:5" s="1" customFormat="1">
-      <c r="A434" s="70"/>
-      <c r="B434" s="63"/>
-      <c r="C434" s="70"/>
-      <c r="D434" s="70"/>
-      <c r="E434" s="70"/>
-    </row>
-    <row r="435" spans="1:5" s="1" customFormat="1">
-      <c r="A435" s="70"/>
-      <c r="B435" s="63"/>
-      <c r="C435" s="70"/>
-      <c r="D435" s="70"/>
-      <c r="E435" s="70"/>
-    </row>
-    <row r="436" spans="1:5" s="1" customFormat="1">
-      <c r="A436" s="70"/>
-      <c r="B436" s="63"/>
-      <c r="C436" s="70"/>
-      <c r="D436" s="70"/>
-      <c r="E436" s="70"/>
-    </row>
-    <row r="437" spans="1:5" s="1" customFormat="1">
-      <c r="A437" s="70"/>
-      <c r="B437" s="63"/>
-      <c r="C437" s="70"/>
-      <c r="D437" s="70"/>
-      <c r="E437" s="70"/>
-    </row>
-    <row r="438" spans="1:5" s="1" customFormat="1">
-      <c r="A438" s="70"/>
-      <c r="B438" s="63"/>
-      <c r="C438" s="70"/>
-      <c r="D438" s="70"/>
-      <c r="E438" s="70"/>
-    </row>
-    <row r="439" spans="1:5" s="1" customFormat="1">
-      <c r="A439" s="70"/>
-      <c r="B439" s="63"/>
-      <c r="C439" s="70"/>
-      <c r="D439" s="70"/>
-      <c r="E439" s="70"/>
-    </row>
-    <row r="440" spans="1:5" s="1" customFormat="1">
-      <c r="A440" s="70"/>
-      <c r="B440" s="63"/>
-      <c r="C440" s="70"/>
-      <c r="D440" s="70"/>
-      <c r="E440" s="70"/>
-    </row>
-    <row r="441" spans="1:5" s="1" customFormat="1">
-      <c r="A441" s="70"/>
-      <c r="B441" s="63"/>
-      <c r="C441" s="70"/>
-      <c r="D441" s="70"/>
-      <c r="E441" s="70"/>
-    </row>
-    <row r="442" spans="1:5" s="1" customFormat="1">
-      <c r="A442" s="70"/>
-      <c r="B442" s="63"/>
-      <c r="C442" s="70"/>
-      <c r="D442" s="70"/>
-      <c r="E442" s="70"/>
-    </row>
-    <row r="443" spans="1:5" s="1" customFormat="1">
-      <c r="A443" s="70"/>
-      <c r="B443" s="63"/>
-      <c r="C443" s="70"/>
-      <c r="D443" s="70"/>
-      <c r="E443" s="70"/>
-    </row>
-    <row r="444" spans="1:5" s="1" customFormat="1">
-      <c r="A444" s="70"/>
-      <c r="B444" s="63"/>
-      <c r="C444" s="70"/>
-      <c r="D444" s="70"/>
-      <c r="E444" s="70"/>
-    </row>
-    <row r="445" spans="1:5" s="1" customFormat="1">
-      <c r="A445" s="70"/>
-      <c r="B445" s="63"/>
-      <c r="C445" s="70"/>
-      <c r="D445" s="70"/>
-      <c r="E445" s="70"/>
-    </row>
-    <row r="446" spans="1:5" s="1" customFormat="1">
-      <c r="A446" s="70"/>
-      <c r="B446" s="63"/>
-      <c r="C446" s="70"/>
-      <c r="D446" s="70"/>
-      <c r="E446" s="70"/>
-    </row>
-    <row r="447" spans="1:5" s="1" customFormat="1">
-      <c r="A447" s="70"/>
-      <c r="B447" s="63"/>
-      <c r="C447" s="70"/>
-      <c r="D447" s="70"/>
-      <c r="E447" s="70"/>
-    </row>
-    <row r="448" spans="1:5" s="1" customFormat="1">
-      <c r="A448" s="70"/>
-      <c r="B448" s="63"/>
-      <c r="C448" s="70"/>
-      <c r="D448" s="70"/>
-      <c r="E448" s="70"/>
-    </row>
-    <row r="449" spans="2:2" s="1" customFormat="1">
-      <c r="B449" s="2"/>
+      <c r="B389" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
